--- a/Patidar_applicant_details.xlsx
+++ b/Patidar_applicant_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>data field</t>
   </si>
@@ -34,55 +34,22 @@
     <t>Patidar</t>
   </si>
   <si>
-    <t>fathername</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>profile_image_url</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQEASABIAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAOaAmcDASIAAhEBAxEB/8QAHAAAAQUBAQEAAAAAAAAAAAAAAAECAwQFBgcI/8QARRAAAQMCBAMFBQYEBAYCAgMAAQACAwQRBRIhMQZBURMiYXGBFDKRofAHI0KxwdEVUmLhJDNy8QgWNENTgpKyJaI10uL/xAAaAQACAwEBAAAAAAAAAAAAAAAAAgEDBAUG/8QAMxEAAgIBBAEEAQEIAQUBAQAAAAECEQMEEiExQQUTIlEyYRQjM3GBkaGxQlLB0eHwFUP/2gAMAwEAAhEDEQA/APl5CEq2lIWRZXMOw+evlEdOzMV0MXA+JuaCW29FTPPjxupyothinPmKs5MBOXVO4Mr2HvDTyUEvClYy2XXzChanE+pA8GRdxOcCLLohwpiTvcizKCq4bxSmbmkpXlo3LdULUYm63IPZyLnazNhGikIQxjmOLXAgjkU+yhvksiuCNCcQksgKEOygfurJbooXN1TREmiMBKAnhqdlT2JRGAnhqcAnNSuRNDQ1ODUoTglbHSNTAx3/AFXc0IPZiwXE4FYSC/VegYcW9k2wXC9RlUj1fosbxnQcNBwlcfJXuJ5XewSC+wVTCCQ91tFX4pkd7G8C64CW7MjuzqMGeX15vUv15lVXqepv2zr9VC8aL1WPhI8bldybGw7q5fRVYR3lct3UT7IxrgpSAl6a4d0qST3ymu90p0VNdlcDROI0SAaJ52VjK0jUwXRpVjGATDdV8I2PmrOJ37EBYpfxTfH+BRydW5zSVUur9cw6mypWXXxtbTiZE9w1LZLbVOATlY1KAl5pQobJSEslsnNRuUtk0NsiykskIU2FEaEpCUBTZFCBLZK0J9ktk0MDU4NSpUE0IAlshKgBGoS2S2QSNRdLa6UNKgBzE9w0SMbZOeEjfI6ILJCE47pLJiGATkIsgECanWRZFgXcPB7QWXZ4TC9zAuSwuwkBK7jCahjI221XI10n4O/6VFds18Poz23e6hd7hjYIoGFxGy4CKqkfJZgtquqwunlljbe50XndUm+ZM78a8G1NiEUYtGLrmeJ6+V1M62gsukiwzS79Fj8U09PFSuuQSAs+m2qaCdtM8lwljqnG3/6tV7dhNHlw1l9BZeLYVOIsalLBclwsvYKGrlfhzM2mmy6fqVtx+jFoUtr/AJnn32mNa1jgDc3XmBB7Rei/aE9zr5uq86e7vLsemKsCON6n/HOigw2J1OA43eQublb2cxG+Vy0IMQmYywOuyoOBMzCebtVrxxlFvczLmljnGOxUehcKV9W2hswWaELf4ObRDCm9oRmQvN6nLH3H8T0Wmxy9tfI+f2pwSosvcnhTtPs2q6eCvyT2uTfVfRNB7FPRtexrdl8l0b3xTxviJDwRay+jPs/bPU4bGZSdQvOer6f5LJfZ3PTdQ3F466NbEmU1yGsb8FnQ0EM0g+7C6R+Escbm6v4Zg0ecbrle6oRNzi5PkoYXgcBAPZD4JOJMPoKXDpXSMYDbmF6Lh2FRMhBtdeL/AG9VU+H0pbESA42uFRics2ZQXkl5Vji39HiHFToH4s/2YC3OyyMqcLucXONyU5exxx9uKj9HDlLe3L7IS1AapHJtlZYghGigeBdWCNFA/dNESfQiEDdLZSxAASgIATgFBIDRK1ACcAgdGtgMeaT1XoGHsDYm3K4Ph8d8ea76jYTE1ef9RfyPW+iqsRv4XMxl7C6zeKar/DPFlbw9rWBxJWLxNIwwv11XKwwTzI6+ok1iZwkzryOPio3bJX6vKHDRelieOk7bEg3Vz8KqQjVXdMqWXZOPooye+U1w7pUknvFMd7rlZEpl5IAnkJEvJWMrRq4MO6fNW8RA7IKngxGU+auYiQYR5rDP+IdCH8ExKiEOCx54+zeei6Ei4WXXxblbsE6dHNz4+LRmtT0gbfZLZa2zGNsntagBPUNgkNTgE3mpG6IGQW0THJ5Ubt0AxqVFtUoCBQCfZACka24UNjJDEtk/KlsEtjUR2Tg1PslRZNDMqcGpU4BLZNDQ0JwCdZLZK2SkIAmvGilsmSBQiWiAjVNspEhCtTFEATkIUACEWQEAX8OZd4XZYVEC1tyuKppCzULdwyukLg1pK5urhKXKOx6dmhB0zvaGKKN4LyNwuww6vijiaI23Nl57h7ZZnNvc6rucKoSYml3Rea1UUu2ekg76Rbnr5ZAQ3QeC5bigSvp3XudF1pjhhHeIXO8VVkfszgwclTp381tQTj8XZ5pw9HfGHh+4cvaKPsY8PZsTZeKYNmkxd+U2BcvYqCnd7Azc6LoepL5RtmP09/FpfZ5t9org8m3VeeFnfXoP2hMLHG+915/fvrtenfwEcX1L+O7HgBoUTzme0De6meO6q47szSeRW6Jzv0PReGKKf+HhwuboVrhfGhHQNYG7Dohebz7/AHHwem06x+2uTxYNU9PTyTyhkbC5x5AKxhtDLXTtjhaTfcr237O+BoYsk1QwF2h1C9XqdVDBG32ePw6eWV8HGcH/AGdV+JSxSztLI7g2svpDhHhlmHUTI7bCy0MJpKekha2Ng08FoOqcujV5rV6ueofy6Ovgwxwr4gcNiHRTU9GxhBFlA987QHPY9rTsSFPA9zgudNGmLs16chkduS8i+2rAanF8PkFK3M7cCy9WhvZLPRxzstI0EFV45PFNTj2hWlypeT4QrsOqsPnMVXC6N46hV8q+t+Ovs9pMWppCIm5raEDUL5s4s4Yq+H6x0c7HGK/dfZem0nqMM/xfEjDl07grjyjmHJLKRw1TLLpJmUaRooXjVWDsoXpoiSGAJQEqVMIACVFk5BKGpyLapQEDI2cBflcLdV3VLK4xABcNgIGYEruqRzRE2wXn/UK3nrvR79rsuwZyHG6wOIcxjPS63o5DkdYaLm+IXuykcrrJpk3kN2taWJnNO95I46IJ7yHbLtnlWLB7yufhVKHdWj7qWXY2PorSHvFMce6Usm5TDsVakUSYxKkTk4hfwo2BPirlabxDzWfQGwPmrtQC5gABPksk187NkJfuqKoKq1DM5srzYJLXyH1UWQiTVWRlT4KJRtUzPfS2aTZUJBZ1l0FS0CE66qlR0jZA57xmudFohl4bZRlw8qMTKA1T7K7iFO2FwLBa/JU1dGW5Wihw2umNtronBFtU62iZkJDSla26WyfGFDdBXJG5lkjWqZ4TIwoT4Bx5G81K3UJCxPa2yhslKhLJQE5F0tjCAJbIukzKAFslFgmXSXU0RZLmCTMo0I2k2PL00uukQiiLsRBCXkhSAlkqEIAEiWyANUAWIASQF1HD9CCQ5y52jiL3jKF2GDwyNYLrm6ydRpM7HpmLdPc0dLQyRwEAWJuuppaqR8TQ3QWXI4fTudKCeq7mghiihaXke6vM6naj00bZX7GSXe5WHxPRFtM4uNhZdPJWxx6MF1yvFlXJJTu6WSafc5qiMlKLs8/4fcyHFX5ts69ipa3NhzAwWFl43w7D22KuJ/mXslLThmHtLjYWW71Ktysx6C9j/meW/aBIXyG/VcHYZl3f2gFvaWZ1XCAEPXb9P/gI4nqP8Zj3bKuLOmaOpVlwuFXItICN7rdE57PTeHMLifhjXFwBKFmcPuqxQg625WQvPZoT3v5HpcEobF8Te+z7hJkMbJZWC++q9Zw+nELA1osAocNomU8LWtAFlqwxpc+eWWTlI5+PFHHHbEmZIQ2ytUMgFTG6QXaHAlVgyyli0WeyXHg6isrYHUzmNcHlwsAFQgtos9r7K3TyahRN2JGFGvBsrcazoZLhXYnKhizRPJG2RtiNFwX2gcIU+L0MrXRAkjovQYgXEAC5Sz0pcwhzdChWvlHwUwy7HT6Pg7izAp8CxOSnmacl+448wsKy+nvtr4RbW4bLPFH94y7gQF8yyMLXFrhYg2K9R6fq/wBox2+12Z9Rj2S46ZEQoXDVWHDRQu3XRiZZDAE6yVCcSgCVIlQSgShInBKMjawFl3N813tDE0RtJK4HBXHM0BdtSFxjauD6gm5HrfR2vbNN8kccTgAuQx+cPBaAN10M5+7dc6rlMXsXaHmqNHBbrNPqE2sdGSd0O2SkaocNF2DzLFi3Vn8KggGqtW0SS7Gh0UZAS7QJDG8jYq0CA5KXgXumUmVOC7ZDDRPktqAtCHCWmxe4qCGqYzUlTnEwB3WkpJvI+i6CxJXI08Pw6CP8N9eeq0pI4mR2AAXOQYlK69gBqnVNXK9nvn0WWWKcpcs1RzY4x+KNGocwNOyxZnjtCQo3SOd7zifNRA3cQtGPFtMmTNv8EdZN3CloZCyPa4UVXGS1SUzXGPQErRS2Ge3vsq18jpJLlVVPVgiSx3UC0wXxRnm+RLap1kNGqepYqGEJWmxSnZJzQSOdqE1ickCjwBJfRISmoUUAt0l0IspoAQgBKgBEJUKABCEWQAiEtktkAIlslslCiwEARayVFlBIJByS2SgaoCjZwRoMouu4o3Rxxg6XXCYQCXgBdnQwucwLi61JvlnpvS29lJGrBUkyAMHNdNQslljF7nRc7h9O1rwXnS67KjqI44QGNucq4eoaX4nXjfkZHRG936LD4rZBHTu2JstyWWWU2BsPBczxVTSmncddt0mmTc1bIm/i6OBwKRzcTf2Y1L916xAZHULcxJOVeW8LMaMRdnto9euiaGPD25be7ut3qL+aSRk0KextnkvHYIl73VcVfvLs+PJmy1Gh5rjDYFdzQL9yrOF6g7zOhz/dUDSRM0nYFTF4sq73a6LdFHPkeocO4nTMw9jHNFwELzWKtkiZZryAhcvJ6fuk3Z1cXqO2KVH1nC4EBXoSLLgMP4vpHMGZwv5rVi4toR/3B8VypY5/Rbafk7BKCuU/5yoBvI34qSPjHDnf9xnxSe3P6ItfZ1AcpopLc1zLeK8OI/zG/FTx8SUTxdrgR5qHCX0TR19LN4rUgkBtquFh4jori0g+K1KXiGkNrSD4qmUWRKFndUUrQ+7uYsrr5GuFgbrkaPF4ZfcfdX2Yk0aOcAk92ltMWTSybtFXjOljnw2YOAN2lfE3FdO2lx+siZ7oebL6+464ipqTC5S6Rt8p5r47x+rFdi9TODo95sut6Mpb5S8C51txxjLszHKJ26mOyicvSxOfIalshqE4oIS2QlJDmnAIQFDJRsYIbPau0pS8xCwXI8PRBz23XodHExsINlwPUJpSPX+jwbxWZU0b+zJN1zOKsIfr1XaV7ssRAC4vFX5pPVRo5OTG9RSjAzraocNEE66JDey6Z55klPurDj3VWhGqsnZI+x4dFOUkO0UZvbVTSNu5JlCtTKGm2QjdShpI0BKmia3mArbXNASynXgeGO/JVpopOTVafTPLRchPila3mE6Wpbl3VTlJvhFqjFR5ZVdBlGpULABIpZJ82wKgjdeTVWRuuSh1fBPUAdlsooJ2sbYWUsusVllSROBOW6aEVJUwyycZWha9wfJdqqJxaQdUhGq1xVKjHJ27FanJGjRLZDBAmlORZAManItZCABCVCgAQlsiyLARCWyUBFgJZLlSpUtgJZFkqWyLJGoTrIsoJoalAS2TkBQ2yWyVCCRpQN0pCANUAbOCECQErtKOoAjAaFxeDMzSBdtQ04yAlcTXVfJ6b0vd7fBcoi6WVt+ZXb4dRExC+gsuOpJY4HtJ3ut84/HDBq8AWXFzKUvxR1VS7N8Ngp9XEXXI8aYnEIHtaQNFlYpxRfMIyuHxzFn1JdmeTfktOk0M5TUpGPU6uGOLor0Nd2NW54Oma66Sq4mf7MGh9hZcA15zXCntJINASu9k0kJtORxcOunGLjEmxWtNVKSSSstxJKnla5hs4WUINyteOKiqRzssnOVy7GlpKiIsVO82UTdXi6tRUyWKklkbmDdELtMIjpfYmXte2qFgnq2nVHTxaFOKdnBU1dU/+Z/xVr22p/8AO/4rHY8tUzZzddOWNN8I48ciSpluesqTtNJ/8lXFdVh2k8t/9SswljxZyeY42HNuFCSjw0S1u5TI219cLXnl/wDkusoK+UUTSamQOttmXHzStvZqtw1juzDFVmxe5FcD4Z7JPk2osWre3dlqZAL9VvYVi+ImRoFS4rkKZ4zX5raw6tipnhz3CywZ8FrhG/TzSfyZ9IfZhT1FZhrp6h2Y3sFNxrWS4YPuz+Ha6qfYzxZhs2Aywtmi9ohfdzCRfKdjbosP7VuL8Nlr+xgkjfI1tpMpuAenmvJPBOWZxrm+v0OlDJc23+P2eU8d8Q1tcXxSSODOl1wBN1t8QVkdTI4s5lYi9no8ax4kqo4+rluyOhDsonbqU7KJ263RMkhEIS2TignIQlJQJQEgTlDJidDw6272r0Cnc1sLbled4C52ZoC7enY90Y3XnvUI3Pk9l6RKsNIjxOduQ2XGYhJmkPmusxGK0ZuVyVaB2mnVWaJJLgp9SlKqZVGpSlFrFBK6Bw2PhKmcdFBEp3bJX2NHoqyO1TS4p0m6YRorUZ5N2KHkc08lx5lRAbKUDRDGjYsW+qmdsooxqpXbJH2T4IyE2IHOnprCA7VT4FXZNJfIosoLU6SRuXdMErQ1CToeTVlGpFnqC2qmqHAvUV1qj0Y5djgEpTQUu6CLEKVFkKQCyAEqFAC2RZF0XUcgKhCEEghLZLZRZAjU6yVCgZIEIQgkEJbIQSNslSoQFCWSoQgBEDdKkCANjCJRG8FdKMRDIx3lxUMmXYqwahxFrlc/Np1klbOtpdb7UNqOgnxU37pVWoxJ7x7xKxw5ziLlXaajmn0YwpPZhDss/acmV0iCSd79yVTqA462Nl2uGcLPls6bZOxvA46aF1m7BLHWYoz2oJaLLOLlI43BqE1dQG8rrvqbh2OOluQL2XPcJQZ6zKNsy9Y9j/wIsPwrJr9XKM1FM2+naWHt7muTxTiWmbBNlaLLCa2xXW8bxdnV253XJtHe1XX0kt2JM4euio5mkOcNNVExuaVrRzKme24UUB7OpY48itK6MlcnY0GFTiia8XN0LUw/Gmsw1rbCwAGyFw8k8m58HocWPHtXJ5S5o6JLCybmKAV6ameUtDwS090pXSuPNMughTRFiA3KtwRveLtBIVWGN0klm7rssCw29Jd41VGozLErLtPhlllSOcEro9DoUx9Q953sFYxiMRVr2hUgdVMKklIiVp7SxCXMOZr3Nd1BIKluf5nfFQxKVVSgrLFLgRxJ3N0IKExAHZROGqlOyidumiRIROTU5MKCLIQgBwTk0JyVjI3+H3NaW6artYZ/uhYclw2BgAgkrr4pmiMLg66NzPX+lSrCVcVkcWlcvPq83W9ikxIK56Q3cbq/SxqJl9RmnKiM7ppTimlbEchkkSsH3VXiUziMqWXY0XwV5PeTD7qV51TbiysSKG+QbupRsocwCd2wAUtBGSRNHoU6V4DVV7YBRzTZgoUG2DmqHvqAL6qA1BvooSCSgNV6hFFDk2PdM4pud1t0uVKAm4QvI2xO6XKnaJEWFA1tzYLVocOMoB0WYx2VwK06XEuxA0VOXfXxLcShfyL5wfTSyrVGDyAXaAp2Y0OanbjMZbZ11lvNE2bcEl2YM1HJEe81QFhB1C2K2tjl2Wa54JWnHObXyRkyQgn8WQZUWUmYJpIVlsqpDQEqVIgASoQoIFCVCEDAEIQEEioQlQSCEIQSCRF0l0BYEpoKCkG6BbLEYur1NRySkZWkqTB6VszxmXb4bQRsaCGhc3VapYuDs6HQPMtz6MHCsDL5GGQaL0HB8HijjGWMXtuqlFTjtGiy7bDaYCO7tNlwdVqpT8newaaGFcIpU9CGjRtyua40pXNp5DawsvQQY4x3Rcrh+PJT7NJ0ss2mk3lQ2X8GcHwdlZWC/wDMV6tPOfYbAWGVeWcFsz1YP9S9Tqo2toe8eWy1+oV7qKdFftnjfG781ZquUG66jjUA1th1K5hrbOXo9HSwo83rr9+QPNgooR2lSxvIlWXMBGqgY0iduTdaU1Rjp2juqfC4/wCHtOYXsEKpC+pbQNvc7IXJkp32d2Eo7V8TzhK1CcF6M8qKktolTmC7lFk0TYfmZNfLcFen8I4e6rw27g43Js1uq85gkZFYkar1j7I8Xja+eOSwGXuF211xvVJyWNziujr+mxXuKDZ5xxlQy0WMyRysc3mMwssIDVen/bDitLWzwwMDXVEZJLwOXReY21Wr0/LLLp4ykqZl1uKOLPKMXZNHyUiZEpFfLspQ0oAQUBACnZRO3UpUR3TRFkASpAlTCglSJQEDihKN0BKErBG3gsZe5q7CKnAjGY8lyWBOOZoC69jXuiF+i4Wtb3nrvSlH2jGxUsaDbdc883cVu4tHa9ysB51WnTL4mDXt+5yNukLkFNctaRzJMcH2SOm0THg2VWTMDqnjBMqlNokkl10TO0KiStVqikU22OLyUXKROUgJc9UqEIIBF0IQAIuiycGqAGoCflS5VFk0MUscRcmc1epdgolKkNFWyIUx6pjoXBawAtsoJrG+ipWRtlzxJIyy0hJYq09tymFqtUilxIUBSFqSymxdo1CdZJZFhQiEtkWUEUCchNQSOQmpyCULdF0iEEi3SXQk5oAVIUqEAMKVnvBId0rfeCghHT8OMzPC72jjtGLrheHHWcOq7eEudGF53X3vPZemUsKNOic1sjbaldVSuc5mp0XJ4RETM267ODJHH1K42bhm7slZGSFxPHrWNppdbmy7N0zn6DQLhOOg408ibSfxUU5V8GcdwXm9pGXTVenVgf7H6LzrgUNFQ0usNV6biUrG0Vmjktmuf75FWkVYkeKcYkitN1zbTcrpeLyH15XPNAuvRaV1iR5vWK80hHg20TKQ5athfsFO4gDVRQs7Woa0c1oT4ZkS+So76KtpnUDRlF7BCzH4a5lE2x00QuS4Rvs70Zzro84slCVC9IeTBObukS7KGSTsBe4Be0fZhgjKjh7tnZRd51K8PbMWvuF6jwNxaaHAjSvY4hpJaQeq5Hq2LLPClj+zrel5scMtzfg5j7QYTT8T1URFstvyXN81rcT1smIYxPUS+88/ALJ5rdpYuOGMZd0jDqZKeWUl1bJo9lKoo9lImfYqEKQIKApAU7KI7qU7KJymJEhUIQmFBOCaE4KGMOQhCgEdFgTmtLeq6l9W1kXTRcThknZ2WnNVjJ3nLj6jDvmem0OqWPDQ3FakyONlkHVSzzZ3G2yiC044bI0c7UZfdm2IkcE8BIVamZ2hWNumTw6KaJSS2yKN1MNiaMZzcpQFJUe8mgLWnxZjfDoQBLZOAS2UWFDLJwCcAlUWFDcqUNTrhJmUWxqQ7KEuVNzpc6gm0LZIUmdJmRRFoS2qu0x2VJPbIWokrVBF07NPPbmopHX5qn2pSGQlVrGWPJZOSmFI0myCU1C2KmoJSXTEAkKEIIBCEhQRYqahCkhgnJoQVDBC3SpAlQSCE1OQSCE26EAIUrPeCEsY7ygF2dfwrDnc1egRxMZEL72XCcLPylq72ECRg8l5j1Bv3D2fpzisKJMNJkqGtZoF2dPRudFcOBWDgMUUT2ucAXc11orYWMsN1yM0rfBplNroqmm7MXdZcLx42R1LLkZovRojFORzUGMYHSVlM4OFrhGDJ7c1JlU52tr8nh3BLCaluh0K9JxKIiiudNFhU+BfwzEyacksvzW7iz/8EbnWy26jKsuRSiTghsx7WeMcVj/HOAWCxpvqt3id3+OcsVjrlel09+2jy+qr3pDnx3ChhJjqGuG6mkJA0TaKzqxufZXp8Mz0tyo6N+ISewtBBGyFYqo4fYmlpF9ELnxca6Oq964s81QiyF6A80KgoQdlAEJ95dRw5c0h81y7veXVcMWNK7zVOq/hlul/iGZimlW9VAr2Mt/xjlRtqpx8wRE/yZPEnlMZsnpX2MhpQEqFIAdlG7dSHZRO3UxIkKhCEwoJzU1OCgYchCFAIsQOI2VnU7lRUkbnkALXioDku5Y8s1F8nR0+GeSPBmEJQFaqYQxVlClaJnBwdMRNcnJrkyEY+PRSSHuqKJOk91R5BdGfP7yYCnT6uKiWuK4MMnySZkmbxTLJwCakRbHApb3QAnAJbJGapdU/KlyqLJoZZKGkp4b4JVFk7RoYniNIHC6lY5K2xopDezTXNsVYvoonpU2M4oiITVIdAmc06K5IlboEnNKNkgHVBIFNTimoAEIQgUahOQggahOTSpIYBOTAUqglClIhCCQQlslQTQ22iWyWyWyAobZPjHeCSyfF74UPoZLk7HhaLNZd5D3GANXEcLMJLV6BTQXYLheW18v3h7DQx/dIgHa3uxxB8FKJKoamQ2VxuSMaC5UchzlYN1+DWoIdDitTT+4658VYZj1a/RwuCq0dOHakaK3FHGzYAlK9v0Q4DA98zsz25SqmNzBtKQNdN1fkd0WTjQJpXJsdOSFaaXB5Hjzs9a+6zYmgFX8bBNY8NVOCBxOq9bjpQR5TNbyvge4ttqq0bS6oAZurklKcpN1WpvuasEp4tU6K2nas2pIpWUzbk2Qrc1U2SmaNLoWSMnXR0HGP2cMYh0UTo1cKjeF2FJnCaRSc2xSHZTPChOysRS1RAfeXT8NPDYHea5g+8t3BL9k6yTUq8dD6Z1kTFxazqolUbKxiBPblVrpca+KHm7kyRqcSmtSlD7AVASBKEAB2UZ0Up2ULt1MSJCoTU5MICcE1CCRyUJAnJRkbmFZWkX3W1LLaPQLFwlg0JWvOWhi5GfmZ6bRtrCY9Y4ucVWCmq3gvNlXutMFwc3LK5MVNci6VOipix7pz9WoYE8jRQC6MyYWcorK1UN1VZzg1t3aBa4O0YZqmK1OAVJ9Yb/dtHgSonVUo0D/krPbkyv3Io1EgKzm1cvOx9EGsk5W+CPaYe7E1hslAWWK2XS2UHyVmCpeSe0afCwVbxyRbHLFlyyRw0TWSNeLtN066QstMjym6lYLJNEqGQlRLyUbt0ocmk3KVIawtcKMixU7dlFJupTFkiRiDuiM6JTuo8gMKQpSmlMQIUiW6RSKCEIQQCRKUlkEMGpUAJwCGShLJbJbJVAwlktkJyCRtk5CEEgnQDvhNUkI7wKSXRK7O84SLWht13LJbsABsF5XhGIinIudl1FNxDGGi5C85rNNOU7SPWaLUw9tKzsGDMpgI2b6rmabGmTEBrgFsUw7a1n7rmzxSj+Rujki+i6X5jYaBWII7quymLRfOmvle05WuVdX0TaL0jWNHUrBx+e1M7pZacLZZOazuIKZ3szhubJ8KqasWUltdHkeKyD2x5UEUx/CLrWqcHnmqnkRki6sRYQ+nZmlisPFenWWCikeZeHJKbfgxJJ35T3VTp/vqsB2i6KoEAjcNLrA09sHZq3HNSTpFU4OLVuzaqYA2BuXVClJcKdocEKhNmxpHGlwTHG6YLpQF2Ko4FkbxuoHK09VnhWRK5Ir/AIl1HD4aKU2te+q5f8S6Th0ZonKvVfwxtK/3hUxQ3q3EbKqruLi1UqfJRjfwQ0/yY5qemN2T1PkAQEIQAE6KJ26lOyidupiLIRKEicnFBAQgJSUOCUJAnN3KVjI28KDnWWpURkN1WfhDtAGhaVYXFi5GVv3D0ulS9izEqQA4quppwcxuoVrh0cvL+QJwQlamZWh7TZOLtEyyy8Rryx7ooDYjdymEHN0hcmRQVsmxCrjhu0HNJ06LHlnfLufQKJzi4kuJJPVAFzYBdDHiUEczJlc2Cda4TSLbpQTbRWlaEOnNAJTxmdpa6lZCMoc6+psAN0t0Sk30RxFpOua/QLVpI4zC7NBlJ3e95sPTZRU9K5sjbMA6knbzUla0xuEckjXgcmG4H7lUZJKT2o044uK3MhntHJaKRpdyym906Kq5SixGl0sTaftAXNd4C9lYZ2JYWmMBl9ACNPVK2q5QyTfTFDhyKcCm9gyBvvPy300uB6qZsTSLiVt+h0uqW0WqMuhhSXTS8iTIU5SA+9go3G5QU3mhIWTJmbBOKazZKVHkZDCmlOKYpFYIS2RZSLQgTklkqAoEIsgKCaC2iUBKE5BNDbIATkIJBCEIAEIsiyUkFJFZRp0e9kr6Jj2Tk9CnNc6+5VuhoJJyCG6LoaTCDk1juseXUQh2dPBpJ5eVwR8MzMa9ucg+a7+lxGmjiHcbdcT/AAp7HXbGR5KY0s7G6l4XJzwhmldnawKWKO1o6+TGacusRb1UkdXSyAEi3quCmgnGozp8PtYFszvgqnpI1xIs97mnE72TEqWKzWut6qGSppqsEGR1/NcS9lQ/3nlKyWogBymw8VC0qXT5IeVXyuDuqPDqPVxlIJ8VkcUNgigcY5b2C5abiGqpeQd5rKxDHJa1pDgG38Vfh0mXcpN8GXNqsUU4rsyK2V7pHkHS6r0L8lTdyfO5R0kZmnDQu9FJQdnBbe9Ub1ZWNdA0DdCq1tC6ONp1Qs0Ywo1ylOzng0EqTK2ypiU72TjP1XT2s5ClEkkaFVl0Ce6W6iebhWQT8lc2n0QfiXScNuAY+65o+8t/AjZjkupV42GmdZEGM61NwqKuYo4duqJKTF+CLMj+THtT1G1OTEAlCRCCBxUR3Uh2UR1UxIkCEjU4JxUKlakATgErGQoTmC7rBIpIbB+qR9DR7OjwZgY0E2utGsLSyzd1l4YW6XN1tNZDkuQLrjZeJ2z0+mbeHajm6mF+Ym2iq2N1vVLY3OsDoqslPHa43WiGXjkw5dO220ZR0TmqSZoBso2rRdowtUyjitX2MfZxutI7cjkFiXVvFnB1WfAWVMC66GGCjBHNzTcpsVPjNrgcxYpgGuqc0WVxUiclpZYABRgW1sNENNlJcWsbeKXobsGyAbC3yS912ux81CT0TmvI2JCigTJRI+M2DgW9CFajkEjLtY646M0ULOzkHfkcFIyBofeKZ2S1y4tsL9FXKvJdHd4LkETCQ5zGOJG2gHmnVdNTuf8AdzWGwsywVYTP2DQ9jR3rhWPZH1MTnMYXge9rqOizy+Lts0xW5UlZlnNHIS2QgBTMnGhv3xsWjdWqmgkpHNLm7i4J1VZ7C85nAZjzHNWKcZclbxyg6ZLTEvFydjorA5KOJuVgCkHTkq5PkZLga5InOSBCIZNEnEJsSeQkfYy6InBNspDuksmIoaAiyeksgBtkWT0IAbZFk5N5oAUJUgSoAAlshKlJABFkJOagAQhCAEKkpx94FGpab/MCiXQ0e0eh8KUjJmNzBdtBhkQaDawXH8IytYxvVdmJnvAtsvI61y9xnt9Il7SGy0UI0buqxwwPduStGKJztToFKZGRDTUrHvkumaaT7KDcGZk7x+KYcKaTliA87K92zpD4LQoodLv0Q8kl2waj9GNDgBO4B9FlcSYV7NA5wa3bou7dK1gs34rluMJL0r7X2VmHLNzXJRKK2vg8ZxNzpZnN0ABsoqam6lJXS5Z5L9VHFVFetint4PKTlF5G5BiEYjabLNpqswS5ldrZjI0grIe2xWjDG41IyZ5VO4m3UY2JYw0HZC59wAQrI6eFFb1OR+SWRoaqrzqrFRILmyqOOq0wVmWboVIdkBLa+icQj/Et7AWFwdZZ9LStkcLlej/Zxw6zFK0wABxtex2t1Kw67UwxYm2bNHp5ZMio4PGGls6zwV6x9q3AUuD0cWJQOjfDfI8Mv3SdtCvJyLOUaHUQ1GJSiw1WGWLI0yaNPTI09aH2VroEIQEEAdlGd1KdkxSiGNsnBCFJCFanBNanBQxhUrTYgpEo3Ssk0qOWRurQrktbLlsQAq9ALgAKepjWCW1y5R18W9Y7iyuJ3B1ynvq3EWAsoHaJE+1FPuSXFgSSdUqQpQnKjExdjW1YsNSLlV2s8FYrzmrpT00SxNJ2XQg6gjmTVzdFYxlNItutONl9xqmuoTJrex5BTv8AsjZ9GaATsnOaW+9dW5KKaNvdFwqrmPBs4O+CZSTIcWhg30UsbwLXvfyToaKpmNo4nn0WnT8PV8lvubeKSeSMe2WY8U5dIpsLHA3aD5hXaaLt3iNgsDZb+G8FVUgDpA8D+my77AuBKaOnbJJCHutc53Lm6jX48a4dnY03puSfMuEcLh+AyTMLIQ15JFms3J8egXbD7P5o6KN1KR2zm/eNkFswG1rbEfMFem4BglPBSMjip4WBv8rVtvhAjAOXQbrzuf1LJKXxO1DTYcXxrk+f8a4XqqWidHKc/Np5g8if1XAZHRyOa8bGxHRfTmPUMc8D2yWyEeS8G48w4UGLtfH/AJczL3/qGh/RdL03VvK9kjJ6jplGCyR8HN6X0StQAlC7BwhpCLapxCQBArRIxPTWJyR9jIY4apEpQnIECEqEEAkQhACFInFNKAFCVNCddACoSBKClJBCCkQAqEgStQAKWmF5AolPSf5rUkuh8f5I9G4Sgu1hXdQsjiYC86riOFpssTQ0cl1Lc7+q8hrLeR2e50qXtqi1NVg6N0ChZeQpBDlF3pjpSNG6BZl+hp2l6NzIhvdynZUOcd9FlRZnlW2zshFhZzkriQ0abTpd5sFzvF8wFI+21lpRySSuuVh8XMIpXl3TZPp4/vFZXk/Fnj1drO/zVVo6KetuZX26qGEEbr2cPxPF5OZjJb2N1RlOq0qhossuU6q/FyZcypkTyhI9C0FBXzlz9Slco4xYqy5t2K58GdcojjBcVJ2ZJ0Ka27NkGYtKV2+hlXkv00Emhz2C7T7P8en4cxyOqDe2jILHsva7T08VwEddIzQAK/h9ZLJUMHUrFqtO8sHGfTNemzxxyTXZ9CcVzz8XYJ2VIzsqc94mUi7iNtl894xQS4fWyQzCzmmxXrtBxH7DgDY54nlzG6FuxXk+OV78RxCWZ4sXOuuR6Rjy4pShXwOr6m8MoRafyKDFImNFk9d9nFQIQhQApUZTymqUQwQEnJKpIFalCanBQxhyVu6RKN0rBG5hoaAFYrHADRU8PFgCSpqrbVc6S+Z3McqwlF5uUiHboWhGB9gnBNulapIMKbWrlP8AUVYhAPgAq84tVSf6ipGOtut66RzvLNBgtoNfFWoLaA281ShddnecFI1/esPdO6rastRpQEEXIvy1VuKnjLruaDbwVGFw7oaDbdXmF2hOiy5G0asSs0qdoboLWWlTt7MXGo6rEZLYi5V6KrYNHH0WSabOhiaR1eFTOe1oNrbb7LsMOLrDOLt27pXndHilNTAGVxbppbVa8PGFBDBpPYnTTYLm5sUpfijrYskYrlnqmHuy2y3AduL2Vqdrsp7zhbkuHwTjGhqsrY6gZg2xHLzXTjFGS05c0gttbQrk5McoP5Ivrc90SGsiEsZMuttNV5j9pODmrw8SwgdpA7OB1HMLrsZ4lgw+kMszxfe3MrzXGOLJ8Uc4UsJ72mvRbtFjyqanHpFeqljeNwm+zgstjY7oAU9UC2oeHAA31HRRNXprtWeVap0IQktqnkWTUyYjQ5o0SlDdkFKAhSIKFJAiLoQmIBJdKhAAmFPTSgATk0JyABCLJQFFkiITrJbKLChiVqdZJZRYCfmpqQXkCiKmo/8AMHmln+I+L8kel8JQ3jaV2bXMjZZoF1xXC7ndm1ddG0uGq8frP4js99pUvbVDiDI5NkgEYzPT+1bHozVygkL5jrqsqs0EbpHOOVmgVuko3vNyNPFSUdK1hDpPgtDOLWaLBEp+EI19j4o44W6alcdxvKewf5LsmNzC50XH8bBggeAQn0v8VFOX8GeO1TvvHeaSKKR40YVuUtDDJIS4X1W7SUlLGACAF6l6lQVJHl46WU3bZwdUx8Y74IWVJqV2nFbIWxOLLBcL3nnQLdpJe5Hcc3WQ9qezsH6IS9hIeSFrtfZjp/RTCuRatVRo1Vyn2VsymHYj2qq/dXpQqL/eUQJmqGhamD/9VH5hZgWvgrf8VH5pcz+DDCvkjv8AEyRhBv8AyrzeQ/eu816Li7//AMUR/SvOpB3z5rm+n9SOpr3+JK3UITYzonLdXJhQiGpChSApKbzSlClCsEIQmIBK1DUJSUOCc3QhNCc3cJWNE16BrnDwUtU0jdGHvs0AJa6S+gC5zvedqKisJQdokukcUzMtKRgbHkpwcoiUBymhdxlVH/Vy/wCoo7xOgJHWystg7fFWR8pCF1lNDOGv9jjjMcf4XDe26unmUEirFp/dbbdHJ0+ZpBspjcbFdRGKavpi59OyN22gtY9Fz1bH2E2VRDKpuvJOTC8au+CbDyS/Vp3WrKcouFSpY7ZSzZwBKvP10VOR2zRhi1EqPlcLWuVapoi+Nz5SWxjc3UtNQumcMrbqxW0dQxvZXvl2A0CplNfijTjxv8mRwYaK8EUzGxNG8k7w0fBZWI4WaZwMWI0VU07sikuQul4fw6jc/tKmWd0g0yPjzAHqLFbVJwnR1dM5jZKprs7ntcQTlu4nKAeVz8VS9RHE+Xx/I0fs88qVR/ycPhYmgka5mnqvaeF4Zq7Bbk2s3cLzupw5tLVOisHZNHEbEhd5wDiDY4zTOtYiwBWLXfvIbomvRbsbcWcbj08LZ6momhfPDF0ZmAH5BcjV1tOKh1RR0bqeMg6CUOaXdRYAAeS9Qx6gqo6mqp42tkZIc3fGhB8BZcdjODyNwiqc5jBIwZgGi2g+irdLkx0l9kavHkdyXS/2cWXF7i52pJuUoTW7J4XVOAuQcmJ7kxTEWQ9uyCUDZIVBAhQhCcgQoQUIIBCEIAE2ychACAJUIQCFShI1KlZI5CEJSQTbpyYpogCrFER2guqyGvLTcIlG1Q0ZbWmen8N1EMUTczgt52KQnQSABePQ4tNC2zSl/jdQHXJv6ri5fS5ZJOVnpMPrOPHBRaPZ6eogebmTRXW1tJENHi/VeH/8y1YFhp6qN/EdY78XzVD9HyN9l/8A+7gXhnuRxSlv/ma+aHYxSxi5ePivCf8AmCtH4lDJjtY/QyJl6JP7Efr+H/pZ7VWcVQs0zi3muR4kx5lTG6ztF5vJiFQ83c8lQy1csmjnkrbg9HjjalZhzet74uMYm9Hijo75SAh2MSX99cy6R3VML3HmV0/2SBx3rpmvide6dhDnXVCmka1VSSd0K+OJRjtRmnmcpbmawqYx0Qse6FHson9okLC251VqIWcAqUc+VTxVTMwJV0kyiMkXpY7tuqzKUyPspn1kb22ba6iZVCM31Va3UWS2m1h2AMmi7STba11qYHgjP4tFDfulwCwKfH3wsytvZT0XEJgqBNc5r3WPNj1Ek0jXgyYItWfUbvsgpsR4f7N8phqXx3a4NuGm2lzzXy5xNg1TguK1FHVxlksLyxwPUFe+YD/xDYdHw9FT4nFM2uiZkLo25g+2xHQ+a8U464tj4kxqprhH2YlOjSbm3j4rmem49RhyuMouvN/f6FmbJHLFynJX4o5lilI0VYTsvopu1Abfku80zCmgKAovaWZkr6pltAp2v6I3L7JChVfaL8lKyVpGqna0RaZKhFgdimucG7qAY5KN1EJGqdgBGiHwSuRUBGVLlSWhqL9JLlaNU+onBHVZuo2ulF1V7SuzQtRJR2kpffdJmTOaVPRVuYt0XukSoAloiGYhTTO/A8X8l1+HNIo55BZ1pXNyH8S4wLsOFaqNoPbjuuJcD4kWI81RmXFm3SS7iZUL5jJM2TR8j7taNreCrVceYgvF9bLUxZnYV8VUwF1PG+xIGwPVQ4mxhleYyCx1ntPgVEZcpobJDhpkVO8BgAA0Ujj3gVTZdqnNyb8kSXIsHxRuYNVCGoY93ug3IXaHDaTFImywzdnKvNqeQtsV0OC4o+mlGVxsTqeixZ8Tfyj2dLTZY1tl0drRcPmF7XPZFIAb3yi66j2YRUFoWRtmeLNsBp1Ky8GxD2iFt3NN9CtXEq2LDsNfK4guAs0E7u5Lk5d8pJM60Uorg81x97GVskcPut7t+p5qjhNbJS4nHI0nKDqB0VbFKoyVO+puSqkN2yA5rc11lj+FM5nuVO0exExV9NHK22a1jpssPFqFlntI0c0g+SvcD1lLVUojdO0PykWtztom4zKwRv1GVt9VyYxePI4nUbU42eByx9lNJH/I4t+BsmjdOmdnmkd/M4n4lNC9LH8eTyM63cCu2TE5yanRXIVqUlNCFNCghCFJAIshCABCChAAmoSIIFCcmhOQShUXSBCUkVKmoQCFKQpCU0lCQMUlRl10OKjJTpCNiuKYSgppKZIUCU0lIUhKegC6aUqaSmAQppKUlNKBGNO6RKUikUEISFSQNKEXQpIKd0XS2RZWlYrXWKeXF3NMDUoaSoCxc1khcUoYUuVSAlyi90uVODVBIwFTNkJbYpmRGVQ+QXAFHJLYosgAantOqYAnBQMWI3G6sdiZQqTHWKuR1GXmqpJrosi15K8sTonajTqpaUOebC6ttmjmbZ26u4ZHBG4l1lXPK1HlclkMacuHwRwUUklrAkrfw7hSsqwLRuF/BPpq6np5QbCwXV0vGMEETRG3ULlajNn/AP5o6WHDh/5s5rEOCK6kjzlhcPBc3WYfPTE9owi3UL2Cg44pJ3BtUA0Hnus3i2swyvpy6AMzW3Cz4dXnjJRyRLcmmwyTcGeTIClqoxHM4Da+iiC7KdqzlNU6FanpjUqCRyuYbXuoZCbZone839VRQoaT4Y0JuD3I7bCq6CYSdjI0F41aefmFmY1AaWdrbjs3DMy2wHRcxC8smc1riCNQQdVfmmneGGaRz7bXN7Kr2dsrTNv7QskKa5LQ1bdTRN7qrRG7Rqr0A081EuCIKxGN1HJWYiWGyVsfxQ5haVU3ZcuDq+GcSfGQ0uOmgurvEVfLVPbECcjdvM7lc1hsghkzErpzUU0scZewF4G+x12WDJBRybqOpjyOWLbZymKUMznskgIDmjUO5qgcKxerky002aUbRNi39V3DnU4qWNaGAb681sYcIo6xr5C1rWHRxFrDxVj1TguEVLTKb5Zj8FYHilGHT17DTggtynR1+Z8E7iyqOH4LVkuu4NLWnqToPzXoNU6Fkb3OlZZ1st3g38l5D9qFVmhpYmE5ZJHOPkB/dYdPKWbOt3k26hrDp3t8I8/HRPamJzV6JnlED01OcmqULIEIQmFBCEIATmlQhAAhIUiCAKbdKU0oIY4bpUwdUt0Epj7oumXQSgmx10XTLougLFJTHFKSoydVKQrYEpqCU0p0hQJTCUpTSmQBdNukKRMLYpKaSkJTEEWOJSEpEimhbBCaSkJU0RY4lNJSFIVNEWLdCYShNRBXulumpU4g4FKHEJiVAEmcpA5MTkAPDk4OUSEEk2ZJmUd0qAseSlBUYKcEtBY66W6ahBNjrpbpqcoJFDip2VDxsSq6AoaTBNotirf1T21jxzKpJwulcIjKbLza17To4qzFiMh0LjZZFk9lwUksUX4HjlkjVfJ2huU3koofdUiqargtu+RUIQoAEqRKEARObaZrxzFirx78FxuFUe0gMdY5S61+V1aptQW9US6LcXlD6V99FqUx6rGF4prHQFaEMtt1TNGiDo2YgMosleQW9VWgmBCmuCLg3Wdrk0WWabcLXooZZIppA1xLRfLtdYlM8CQArdklkfSObT2HUc7LPkvo1YKaMWonxSorGgQRwnZpc8WA9PJbFDhXENY4OD4Jb6Dvk7dNFnRUFRUyAR3BJW9h2EY7GGmHKADoeijLkjFUqRs0iqVyTNNmB4jDSOOITsgYNmsGrvK/7Lh/tEyxzUEDXl+Rjjc7nbdd0MNxKBhlr6h03QWsF5hxjUmpx2YXuIgI/Xc/MqrRfPLd9E+qZV7NfZipWlIhq7VHl7FJSIRbRSQwQhCCAQkKRADkJt0XQA5MKCUiCGBTSUEppKlIRjgUl0iFNAKlum3QookVF0iS6KAUlMKUlMJTJAwKZdBQnQrEKaUpSFMQNKaUpKaSggQpLIukJUkAkKLpCVJAhSJSUl1IohSFKmqSBChBQpArtSpGp6cQbZLZKEIASyWycAhADbJbJ6EAhtrIATk4M/mNh81FkpWMslG6mY2MavJA+uSsQzta37mOx5k/2SSnXSLI477ZUDHHZpS9k7S4t5q46d7hlc6wHIABMLx4edkm9lnsxXkibTuPMKRtKep9Am9qL+8fQpzZwP7lQ3MZQgObS3NhmurMOFTzf5cMzz/Swn8goW1kjTdhDT4KdmI19rR1FQB0a4hVyeTwy6McXlFk8PV7bZqGqbfXvROH5ppwaoabOhcD4kBVya+Y3PtMh6kkproKv8Ucg81XeTzJf/f1HaxeIssPwuRg7zGj/wBx+6i9kc03s34qB0U43a4eqjIlHX4p0pf9QknDxEtkSt2sE28iqntOp+KT7zr8020Tcvothz+oRnf/ADfJU7v6/NJd/VTsFc19FzO/+ZN7V/8AMql3dUrQ5zg0HUmybYRvOw4ciElMBM0SMk95rhoQtKfhou+8w19zzhkOvo791JgFPkjYy2gFl1dHFYiyxyk7NC4POq6hljkyTROikH4XiyqszRnK5eztpIKuHsqmJkrDycLrFxTgOGoaX4dOYX/+OTvN+O4+aVS8MfevJ55C8ixB81bjn0AJUuLYDieEkmspXiMf91neYfUbeqoNlbs5wUON9F0ZmpHIDYrapKtjIADY+a5djx+B4+KmEz2kW/NUTxXwaMeXb0dxgdexr7Nygk7LucIro3xhz7XA1Xj1Ea9z2upqOolPLLESPirkPG8FKHslDmyNNnAakELDm0ryfhydDBq4RXzdHqOL18PsU5c5tmNc4nwAK+d55nTzSTP1dI4vPqbrcx/jSSuppKema9rJBle52mnMALlDUi2rQtug0c8Cbl5Of6hq8eZqMHwi0Shrm33Cpmdh6hIJGX0K6OxnLtGiNQnEaLN7Ug6FSsqOTiQlcGMqZYO6VQ9r0I9Udr1HwQRtZJzSJvaMPMDzQHA7EFTQjHEpCkKS6KIsUlNJQUhTJChdIUqapAW6VNCcoYAhCbdBIpKaSglIigC6aSlKYSmRAhTSUt00pxWKSkJSEppKAAlMJQUhUpCsQlCCmkphQJSEpSmqSAJSEoKQqSAukugpLooAKEIUgRAFGo3UoHgkkADdkbgcKVjRrsE4MPQqWlAI1CtDL0SudOho4tyuymG6JLKxO4AWAsq8YL3gKVK1YsoU6ApQLnQG6dLEWvaAb3XTcO4Qyd7DIHWvrYKrLnjjjuZbhwTyz2o5m2Q97QjqgOBuQO6E6uN6ya23aOHoCUxhHZ+GpT9qyKqW0cWO7LtSLMvYHxUTZHfhJA8Fs8U0xw+XD6A2BZRwzvA/nlYJDf0c0eix2W2G6iD3R3ESfypCjMfDzRb+Z1/JKXNG+p6BKHg7NA8Tqmpg2vsQDXRpU7AeTQPNQBxzd7UIc66HFshTSLgBG8jW+qe0x3s6pFurQSs+4RmIKX2v1H9+vBrsNJlJkq5r9GxE/qm56O3+bVE/6AP1WVcpyX2f1Jeo/RF9z6bkJ/WyiMsAJ+7kPm4KpcpRqm9tIX3myx2sX/jd8U0ys5MPxUNktlOxEe4yTtGfyfNIXg7NTWtLtuWuqURk+7YnwU7URuYof/SFLm7HI/KM4cDZPihDBc6u/JQVDsztNhooSTYOTSPTOE62mxCH7pwEjR34ye839x4rraWMhw6dV4RR1MtLOyankdHKw3a5psQvTeEOL2VrmU1fkiqTo12zZP2KzZNO1zHouhnT4Z6NRtvZabBYCyx6abLYrVhqIxG6R5sxouVlaos7LXcEbjNbJtY8/DxXD8ScDxYlJ2+Fx09LK46x3NneJA0B8l6fh2EQVdJBWPn7QSND2tjIytB5X5nqmY5V03DGHyVfsT6hzBezPEgeu99x5qh56dLstjCuWeF4jwViOExtkrXNDHEhoiHTrfVehcCYdhDsPLsNBfUtAMwmA7QH9vJeiYMYeJsDaa2jtGSWdoW5Q9wFi9gue7e4GpvZcZj/AAbV4RUivweR0M8Zux7dn+H9jusmVvUR2N0zXjye07rguVrHBttV8/cb0fsHFNfFnY1r39s0Ho4X/dfRPD2NUnFGGyuDY48RpXCOqhafddyI8DY+ViF4n9rwo5eM30jjlkjpow6Ru7XG5APoQm9NhLDmcZfQ2ryRyY019nCubbLZ8Ti7kOSaWEj3GnyUNVSS0x7wzN/mbsqwceRXfS3K0zkPI4umi46PrGVGY29CoC94Ojj8Uud5/Efin2Mh5F9D8ovo4pRmGxBUbJXC+bUeKeJ23s5gKhxYKaHiRw3aClEzeYISCSJ24LU9ojds4eRSUvKLU34ZHJMCBolbKDtoUkkQ5KF0ZbqNUySaEcpJlxsrvNSh4Lb8uoWcyUt0KsMk5s0KWUKGjKMi2kKgEpGrbB3MfhKkilZLoO68fhP6JaBr6HJClO+qQmykUAUt01F1ADkiS6QlACppKCUl1NAF0wpxOijJUoAJTCUOKRMkI2F026CUl01C2F0hQShCBjSkSpFIoJEIUkDSkSlNKkAKEJpUgCEFCYCZrVFUAiytNCgqxYhUxfJoyRqFhSk3V1jCVUogS49FoWytVeWVMt08LhbKdU0NVdjixwIT53lzyoldBccmTK/laHulc6QOPJdnwviEzC3Iy432XEjddxwxPCykLXkNcdVk1iWzo2+nbpZOHRyeIsLK+pDhYiV1/iVWZqwt63C3cebFUYjijoh7uV4v1sLrHogC43AKtxz3Y/7FeXC4Za+7/wB0a3G8hn4g7V1/vKSkcPL2eMfosIA2v9FdDxXGHUuAVTBpLQCJx/qikez/AOoYsK4IANlZg/BL6/7GXMts2hAQW6tuPNJoNtLppOthslOwVxUguSlASIugkcByT4mh0rQSAHG1zyTAVLFE+ZwbGwud0CAJoafPBm5dU+mw6eqlyU7M3idAPVdlwXwbDi0NTFU1Tm4gGZ4KYe7KRuy/81thz2W1gWASVFeyGFrWWY4tadNhss0s8Vavovjhk6/Uy+Hvs2NbhL8Vr67LRxyCN7YWXcCdr3I08VsVX2POqqbt8DxaB+thHUAtuel7XHwXd8AAxPrMFxBjmU9cwt1b7jraED4fBNpaio4cxR9HWA5GuyOG+TW+YeBBJ8brmZNTl3yUJcrrrlG6GHHS3I+fcawiswTEpqDFITFUxHVt7gjkQRoQeqouIJ7osF9W/aDwHS8a8Ltmp3tjxODWllOxLiPu3H+V1xryNjzK+V56aWCR8czHMkY4tc12haRoQfIrbotZHUR54a7MmpwPHLjoia0vcANSVbji7MWG/MqTD6UvYZb2B0Ctup2tGritE8iuiMeJ1uKEzskZPM6BUyAp6sh0xDdm6KE7BWQVIpm+SPZymY6xUTk5qcRHf8JcXVFNkp6wOqKfa/42eXULrRVxcRVope0fTxsP3QccuY/zHoenT1K8doal9NMySM2cDdei4FUNrG09TB/mNd3mjcHQrLkxrtGmErR1WEUPEHD2LwxYfislNDM173MltJES0cwfG3Q6ruKLjPHIGNZiGDUNdcX7SknMYPW7XAj5p+IOpPaKMTBrqn2ZzgOZbdmp+aie1rnCJtmt1vb+rVcmc1NJyibFDZwmaQ43xGWMluDxU+uW8tRnt10AH5rCxTiGuxaGaCpqnspYi51UYrMY1gvYaaknzWZi0kjmSBr8rbtJA9531ZZ2IU89PwHxERGQ8d5x52sNfgVMcMI00ubQbm+Gef8AAXG0fDfFmJYhJA91BWska6Bm4Iu6P56E9CVx+K19TiWJ1OI1Ts9TUSGSQjqengNvRQZdE3ZdiOKKk5pcswOcmlF9F2OpJjBHebbZQSshkNwA09R+yrjNG4lu3MJxGcZmfBRsp2hvc3KmI6AA6OBUtPSunfkYC59jYDmq9yOaGyPY4Oa4tI5g2KdWI6Jm0j3MlcBoxzQ432zHRVnjK9wHI2Ugcb5rldRw9w/RYhh4qZHveSSHDPls7p4qW6RCVukcjzRcru63gQSU+fDJnicbwzEWI8HDmufq+GMapYzJJQSuYDbNHZ/5KFOL8kuEkY4edsxCUSOHvC/iE2Vj435ZGOY7o4WKQEg76KaRCk0POV6juWHRPcM1izQ80zfQ7oRLdkrJA8WOh/NOIJ29781VsQbhTseXAapXGuUWRnfDLVPN2gyu97knndUn3acw9VaZJ2jbnU/mkaGH7IJSJLqKAemJLpt0UA66bdISkJTEWKSoyUpKY4oSFYEpt0hKE4jYISXSoAE1BSFBAJChCkATSlKaggEhQkKYBU0oQgBEIKEwpuVVC+nNpGEFZVb74C7XGTDU96J2jevNcTXOBnIHJYNJkeTlnS1cVBNIlw4d8q7UnKxZ+HvDZbHmtCsAMd1ZkX7wjA/3Loyibm6EEEFKPFafBz2rGN3XQYY7K0BYANit3Bz2jQs+q/A16B/vKRaro4/4qxrB/wBTS3d4u1H6BYFGckrmnkbLSxMTUeMQTZu64DIR4aELOqh2OISjxKrwr41faNOol8rqmm/8mjilQZMHo6ZzT9xNI9rr8nhlx8WX9Vjue4kkndbEo7XDHG2rRmBWMSdRbUq7TP4tfTMuthtmpLpoanJGi/MBO2IvdaDEhAEKTTeynpKKSsqGxQ89S7oEtjUV4Y3yvDI2lzzsANV1mCYLLGGmX33fhH5KehwplM3LD73Nx3K1aF8kNQGygOFwRfY+CqnPjgtxw55OgoOHcVpqWOtjpJ2xghzZGC5HQ6arv6HDxjTW1TYzT4y0XlitYVBG7m9D16/n1rMOpuJuHsOqsOmNPKxgyhm21jcfl/c25LiQ1mH4hEyYdlNGwZZWEgOYOf1+i8+9RLM66krOrHHGCNCJg7fPMwsqY3ZQSNj1V7i/D4sb4dNVC1vtlI3NmG7ouZPW249fEiTBamm4qpexqHNp8Wa3R40Enhbr1+rPw+aowmv9nxCK7bZXt6g6W8vrmVntxlfleCx1JUQfZ9Wmq4ZraWRx7aBug55RqD6bfBeE/bXhApeM5J6dto8UjZVsttmcS1//AOzSfVe68PUxwHjeSmYSaeY2ad8zHC7fnp6ea4j7e6CKnxnAWMYcsUM7232Ac9uVo8jmV+myrHmuPTK8mN5IqLPI44GwxsjbsxtlnV0waHEbNWtXERwuNrE6Lmq9+zRzNyuvp1vdso1DUFtRVGuqckAsEc10DmDHDRI3ZK7YpGqSEPC6Lg3Ghg2MU9RMwzUwcO1jG7m+HiOS55gvspWgtIKrnFSVMsi2naPcaHFJsR43oJZHBzKmB7AGnQMygi3wXcUtI+pq2tc8NzsM19MrQ0XI8TYFeEcEYs6DGcMdI/SCZuW/JpNnD5lfQspjhheH27Fpcy7tLHdv5LjauOySUV4OjgdptswcawttJikbGv7Vz4nOD7cyfyHJZvFOItbwpV0UVjJURHtCOTbEW9bBJiNYZZhKzMNGm+Ym9xY78vBc/jsmXDakn/xuCuw4W9rn4KsmVK1E8djGaMdbKNzVap29w+aZKzcro3TM221ZWSjukluiCNUgT9lfQ6RmZuZvqoDspw4t2O6R8YLczTfql6G7IQbFdt9ndTTPnFFUuy3k7Vl+Z6Li8t1NTvkgkZLG4sc12ZrhyIQ+VQLh2e64lemc+aMAsHeyjkNirFXExlPJLGNmhwt6foVzvC+NtxnDXslIEwaQ9vTSx9Oa26aft8HgBsbxNB87Fp/JZZQfBepC1uE02I4SHTQsmaRez23uF5LxhwwcJDayjzOoXuykHUxO6E9DyK9t4b+/4ehJ/Ey3zVKKCN00kEjWuY+4LSAb+iTHkcW/0GnBSo+eGuynqOiUszMLhuOa9B+0Dg6PDycQw2M+z3tNCwXDP6h4dei8/JAuBqCtkJqatGaUXF0xm48U1pyuSkEG6R45p6FT8lgWeyybTvyuynkkp3ai+2yHjJMCdkleC++FIt3SEpOWmyRKD4YpKbdBKQlBFgSmkoJTSgiwJTSdUpKaUyQrYl0iCkGqYRioQUKCREFCQqQBIUqagByYUp3SIIEKEqRSA1IUpSKQEQgoTCmkcQlMeU6+KzpTmeSnX0sojukjBR6JlNy7ZLAbPBV/vOaAdlnRe8CtFk7QAClmr5HxypUIIL7pssTWNKstmYVHU5XxmxSpux3VGb+JatBVshYLbrJOhspGCyfJBTVMqxZHjlcTRxusbVMpyDqwkKDFtZ45P52NN/RVJRcBWqp4koKU3u8NIPoVWoKG1L9TQ8ryqTl3w/7cFmjnDaOVrtQWkLLcddL28VLG4lpAJtuo3EJ8cdrb+xc+V5IxT8CeScD1TOafZWmYe29tF2HD1F7JTNfIO/Jqf2XP0FLZ0T5Rq8jKOg6r0quwyWkpoe3ifGXxtkZcbtI0I8FTOaui6EfJWbALZh8kOjuAbeS0MEp/aXmJz8lgTci9uq0sQ4frKan9oEbXwC3fjOYDoDzHqs8ssU9rfJcoSrcju/sXxH7+bD53ExEB7Rf00+vzXoXEeF0eJsdRYlHdwN45WmzgegP76dea8P4MrHYZjFNOL2DrEdRt+a+gqxja/C2TsIMjW+/053+v3XntXF48u9cWbsbuKs8cx3Ca3hXFoXxTF7Se0ilaLX1tt1HMf3XouHT0/FmDMmjyx1sQII3sed+oP7+JDeJcOONcLzNa3/FUze3h62A72/UfkPFef8G4tJg2Kskbf2eSzZGdW7fG+v5800v3uPevyRKuMtp3eKUjmfwyvLS2SlmbDJ1yE+8b+J//AG9F459rWK/xjjOryOa6CkApYy3Y5b5j/wDIu+C+i3NiraKd4yuJaCT1I7zfHTf+918o/aJUMpeJ8ZZCRc1kwafDOdVXo17k68l8ZpJuXg5PFZw+bI091ulx1WA/76oJ5bBXKqTKw/zHZQ07MjC8jQC+q9RiioRpHIzSeSdsgmAa6w5BRDcp73FzrlMOgWhdGVu2MclA1RupI23KGCJYWmykyp7G62T7b9QqnIuUeBsEhhe1wJBBuCORXulFj8mP4fBVyEAgAPjbo1jx3Tp8/VeGEbddV2P2f4l7PWSUkhAjqBceDwCR8Rf5KrJBSab7Hi2k0d/Lq09bEfDZc/xfUNiwyUXGv7f2W894B7w/Fb5Lz/jnEBNJFSsN81i70+gpSEuzmIGWgB53umyNuFKw90BDuSL5Lq4ooPZYqEjVX5GXuqz2EclZGRTKJCErTbUckEJOfgn7KyU5XizdHb26pA0lugJt4KJ7SRcaOGysUlbLk7MSGKS97gDVI010WJpumXeHMWdg+KxVIBdGO7I0c28/Ven4HURvwqXs5GujjdK1rr6Ft8zfkV5HJE9wMshcXk6m2hWrw7ihp4JqJ8j2NlN43NOzjoQfAg/JDW4jp0e6cItLMCo2OBBMYJHnqq9Y3sJy83tflr8itHCm9lSQsAAyNAt6fkqvEAGRl7ZgNDtf16rmwd5Gvs1yVRQVLBIWE+7I2y864z4HbUNfVYTG2OpHedCNGyeXR35r0CJ5NFC9wJLXWJ5j91dqIg6IP0sRe4TKTxtUQ0pqmfNUbWNjlEzXCRt2lpGx8VU/CQeS9X+0DhT2tr8Tw2ImoAtPEwayD+YDqOfVeVysMcpY9rmuGjg4WIPkuhCamrRklFxdMjiNiRz3U84zRh3O11Xb3ZQrhAMAv5KZcMeHMWgjIdCCkum02zm9Cg7pK5Jk7SYpKYUpKFIgl0hQhSAhTSlKaSpRDBIgoUighIhBIqQoQgATUIQAJCgpFJAFCE1SAJEqaUwAUJChAouZNJukQgih7TZSByhTkAS5/FKXG26hQoomx1tVIFEClBUgiQ2sUMOaEeDj801EGgePVK0MnyLCe9b0SOaXPsAgd2Q+d0+UZZNdijyD5iRWsbLYwXD/AGg9vM37lh0H8x/ZZ9DTGqqmx3szdxHILuKWNghayJoDGiwA5KJOiIKzGmY7tmvP8wXvUFKOKvszpKiEZ6/Bx2cjRqXQ7j4b/H08gkpGuYbC5svS/slxg4Pibczv8PIwMeDsSbAX+fpdc3WKSipx7jybcCTuL8lfhGij/j9K2oH3TnEOPXT9/wAlscQe24BxHVMjcWxyd5o/CQ7l6bLquIOGI6GtixPCgfYnuzZRr2Vtx5XWrjGGMx3h5zZGN9qY3tInHcPOw8jt6g8lzJaqMpqb5T4NkcbUaR5d/hpq9k8bBC2+YsbsA0cvXWy9l4CxQVuGdhNzGUjqT9fNeJdmY5cjgQQcp9N12fAeJmkrGMedDqOlzoB+nqp1ePdDjwRj5tHqmGxujkma4Xyuv5/0/X6leN47RtoOJq2misY2TOynpfUD0Bt6L3GnyvtMw6Obb15nz1+K8d4shycWYkHN1Mt7eBAsB8vl4LJo5cyX6E3ckzvOE6iRlNHDUOuwMsHk6OjtmD7+v1cr5E4nxE4pj2I11+7PUSSN/wBJcSPkvqV83Y/ZtilV2nZy09BUfeA/0OsPQn5+JXx/VvysDBvbVdD0vHc5S/oVamdEL3drLpsNlJVOyxMjG5FyoYTbU8tUyR5fISV3lHk5zlwMPNMOpSk3Q1tzorCsGi5VqFlh4pIo7DUKXax8FW5FkYk7R3hYJg2+aA4XFtk2/dOuqrLiS2n1qpI5HQd9pyvaA4EcuhVbP+aSWUGIjY6ISsi6PVKTGWYhg8Ve2wLwC9rT7r7aj4/mvNq2sNZics5PdzZW89AoKDFZaXDqyja45JrOZ/S7QH4j8lWgOW3gU+2imL6Lcb9SD0UpPdGqohxF/JSCXu2vzSNFykWj3nbbqGRl01strXKlDmuuOt1HRNplV7eSjI0Vt7NLhQvabp1IrlEi6KOWMOHjyKlI0TenROI0SU9VJ2JjzkOG19iOatYFEJMXomsaSO2ZmdbQd78kYbJT53U1ZHnilB7Mh2Usktob9Nrjmr3DsxpMRo6f3XOqoy4nwKS6bVDtNpOz3cydi6NvuuvqB+H+315QcRuygcu6L8x6qnjVR2VfEQcoZYf6efw+vESY8S+oha0HvZdtx+4WCEKaZpvholpmXwt7bHQZgBqRbp9enXRi++o287i+nNY9RIIq+lgjIAPceORuN/r/AH1MKdenDXaEb/v9f7rkXFkx7orz5Y3tbYa8hz8v2+jxvG/CUWLxPlpQ2OuYMzHbB4/ld+h5LrMZdklF7eR5n9D9eU7W9pAx51u21zuptwqSIpStM+aKuGSnnfFMx0csbsrmuGoKnaLxO12sV6b9ofDIxCOSqpGWroW3IA/zWjl5jl8F5hR6seOoW5S3RsoitsmhIP8AqCORSu0cUxpyzRn0Uk+jypfYf8RqaUIKmhASIKRSAFNKUppQhWIhCS6YgVCEKABNTk0oJBIhIpIFKRCEACanJikASFKUiYAQk5oQA1qEiVAgqcmpQgBUIQAgBUoQAlAQABLF/nAXtfRLsmF1nNtyN0DIc/3geoUtQM0cRAuS22nXZMnFj5H81cwerjp6+llmiZK1knuPF2nzSPq0N5pm9huGGloG3H3rxmf+3otTB2OczKASSV1tJh2HY7FfDXtoK0jWmnfeJ/8AoedW+Tr+akwXA6nCcRjir6Z0MmaxbIPmOR8wsU9VFJ/f0aoYH/QhpeHqt+H+3PjcIb2Gmqv4fC+mp2/cubY5jdvwXpBp7UsNNC0NYy9xyJO59Fo4TQRRf5kYOeziSNxyH1zXJn6g5L5I3R0yj0yr9n+P+0tdhtZaRpAaA7mPrT4LtJaMCmeaXvtd3rc+gHwt8AvOq3ChhONMqqfuxPdYgfhJ1Py2XqGF/eUAmB1306Dp63+K52fbe+HTLHcVbPKPtBwr2XFhURt+6maA5wGhk/F8rH4rCpHmF7ZG6WJd8NF7NitDSY5Sy0dRaOYatcPwvOx8d/gfFeW4xgtVg1b7PVM7hIbHIPdeBzH5WWzBnU4bX2iuqket8NVZmwKjlJzENs63M8/39Vx32i0OSrpa2Md5/cJ68w75n6Olz7Oa7tsMq6N2rowJWjqCf9/gFtcQ0zMRwKZrwZDGc1wNT4i/Ia/7Xvii/ayjVyedcSYiW/ZZjdAx1p6p8VJB49o8Xv6Bx8vNfMeJOidWz+zkmEOswndwHP139V9G8cuiovs04gldMO2kDBAefaNde45izS6/S/UlfM/Jeh9MitspL7/7GHWP5ULfSyaTclLqhdcwCNbc2U8bcqSNqmY291VJlkYiX00SE6DlopDGLb6phZpqlLGmA1fYBKAQDpyTmgB/qlBGUjwQAjWBzQeeqqVTC2XLtayuaAAjcFVqp1yLpodizXBXiY4kkAmw5K0x+wt0UuCTR0+I08lQ0Op2zAygi4I5XHMX1stjEou1hkqp2MaTIAwhw74PIdQBz/dJkyVLa0GOFxuzB3BSd63qrOQX0aNkrmtI2U2TtKjriyA8hysuiFvRMdB3rAKbRG1iMmIFjqp2ua9oVQxkJGuLSLoavoFJrstvjGvgoHM/lsVMyQPJHMpkrdiL3QnRLSfKGxNa5wEnu7LQo3n+IUMhtnhqGB5PPXQrKDyNCrdG8CdjyRa4Dr8xfT4FEvsiLtUevcQTXka8G3fAHh/b68tSOdk3s0zjYQM745st+Y+vActjFReiiOxzNNjr8Crs9Tlw4RtPekIYOov+n15VSx8JIdT5Zp4XI+rxqAk3dldK5vQnQfXmtnDJOzkMbhlynQfynp5fXS2NwWO1xepkOrWWjAPT6/Vale7saxzmnW9gTzHMHx3+fiqZpOTh+g64SkVeIpLsldyvl12PgfFa+HMzUMRN/dG/5LnMVcZKZrNSZZA0eOu3mutpoxHStFxZrQLnY6KvLxFIfHy2zm8dvFUtkHJwF7Lyfi3ApsOxyomgp3ewz/eMc0XDcw1Hhrdeq46/OM3Nzha5snVlP2lHE8C5AsQeiu3bEhEt1s+fZNA09HKaoHf9F3nEnBrKhj5sNDYpycxhvZjvLofkuIroJKd7Y52Ojla0BzXCxB+gtCkpdFW1q7KqEFImEBCLoQAhTCnFNKlEMQpUhSKSByEJqgASJSkKkASJUiABIUqaVIAkQgpgEKQpUIAahCECiISJUECpQkRdADk5MCVADwnXUYKW6AFJTSNEqDsgB0rszWnq38k+iidNUsa0E6gm3mobEgNGpvYAc12/D+Dmgh7SYXqHi5/p8EkntQ8VuZ0OGsdBSxhx+9vc+Gl11WC8T1VJGynq2MrKQZbRTa5fFp3B8ly8W+umv6KzBu3yauflxRmqkjbCbT4PYuH8WwnE8rKapELz/wBiZ2vkDzuuyjpwQ2N7bXObTl0/L4jxXzky7SCx1nAXtfUar0HhDjiake2mxcmSnubSX7zTfTXouNqdJKPyhyboZr4Z6Bi9C6aInTu7H+o8/rkVq8Hy2gMLvdb3QOgH1b0CnpckkIcxzZY3atNt7jT8/h5KGhpjSYg4Mvld3Rf5n5fELnbrjQ8nuTTK/EtNNQ1Daym1A1I5E239Nfn4JKWqoeIqB1HWNDy7u2ce8DzN+vj1HiunqYxU0xFtSNPVeb47hMmH1ftVCXRDchhsA3w+trfypoNS46YsHvVPtE2A4NPg3FMZjd2lJIHNLv6OQPrYrrKZxiqJWPBNjY33cOY8vrxWXglb7Q1r5Hd8gFwI2A5fn8wtWqgLq0PNwJWd4g21568uSWc3J8jNU6Z87/bZHJh9Ni9PM4ayBsdtAWucCLeY/Lw18MvsvRftu4hfi/Ej4RI50UZ0B6Dut+Vz6rznkvYaKLjhju7OPqJXkYX3QCjmkvotZSStcbhWotCqTTsrDH95JJDxdFhxt5qNx+SQuJbvqU0nWx3SpDthmJKeBf4JgFneYU1rO3CGCBrb76qKqaGxXO5VlpsFSrc2YGxLeSI9hPiJFTOyz26rScxpGYNA62CyYzlqGELbztsfVTk4ZGHlOyB190gbZylc4EX8U240NtglLGiMX1tdKpQBmNuhSaWNxzQFEXKxCZJG0tFgrFm2adtE0t0PgiyHEq5CxwIUjXZm2O4Ujm3IJCaWZbqbF20Vpm6abpIJCLjmpH+Krs0nA2unXKK3wz0GeoMuFUfR7mC3Jar5AZAXathYbA9SNR8PorlsPqBL7DELFjSXH0C1qqf/AAkgBOYnXzOylohM7X7PTalkld7xu435gn6+irtUe0JO4Otuv9/rosbh6oFHThltHttb8x9fotF0zXC+7Tr/AH81l2VNyL3L4pDKdntGMUkQNwz70kbHp9f2A6msdkpbAauOn18lz3CLO3rKqp3JOUeXI/EfVlr4xKIwb7Mb0vus+T5ZUvotjxAwqke0V0UTL93vOtv8FsGAdjlPu25fmPBU8Dpy8umfe7tb3vp1BWy5tzsL/K/91GWfNEwjxZz82FySSHI5obzvuFj8ScIQYrShsjw2oA+7mDdQeh6jwXaGMN7xNgNb/kVlVVSaqoEFK24B1cdgiMpXZLS6Pn/F8NqcJrpKStjySs+DhyIPMKlde68acORY5hpj0bWRC8Mh5O/lPgV4bUQyQTSQzMcyWNxa5rtwRyWzDmWRfqZcmNwZGSkulISK8qEJSFKhADUIQgAui6RIpAW6S6EIAEITUACEiS6YixUiQlJdAWOQm3SXQQKhJdCAECWyEqAABFkJboALJbJLq5BQVMwBjjJBSuSj2Ci30VbFFiuiHCWKnDBXCFnY72za2va6y5cOqYzZ7LHzSRzwn+MkWSwzj2ilayUC5Uxp5RoWpW00vJqfchNrJsFYPamyuF8hBHmu9ixGGGI+0wl7jaxzkAeYC5TCMMqpMghhc9w7xAHiuuq8PEsUb+wIcdHrPOcZOmy+MJRXCJ4sZY2Rr6eCnZba7e0v/wDK6nbXTTRmUy3AFyGAN1HksA4e6AmRj2EAXLHutceCe2WOne9rZHASC5A1sNeQ5pHCK5HjJvg9i+zLibDDw4aXiCCGqnEzuwkqIg8mM8iTrv8AI+Km/wCXMFrq4SUlbJHTPcZDFocrN7X3XmeGY1hsYEftTI7DLZ2lhz+vALtML4mpiMzaimdcjvWDhYden9yuRmhJSbhas343FqpHtHDFVEyZ1DGRaOIZbG/oPn8QtmPLUEOBAc3cD8Pj9f3XjGD8QR02Kx1kceQg5n9k67SOQ+GnmAvUoKthliqaZzXwTAEZdg7cg/n9XHJzYnjZa47uUdLAdCORGnlsFlY3TNMbi4dw6mw5DYfXj1V+llbIwOadT8/7fXiXVrBJTuaRfS9hz5BUJlEXtkcZh8Jp6rKds2Yjx0sPy+R5qL7SMd/hGCsZG8ipnY5jDyaPxO+ei0zGWVsTXWLgbXt7zj9H59F5d/xCYh7LTQG57kEmW/Ml2UfMXWvS41mzxiy7PLbHcfOGMVZrcVqagnR7zbyGg/JU9wkG6Vq9nFUqRw7vkW2qSw8UpNykvopQCiw6qVoaTubqFSxuF9QoYIlbY31IQ6PMbh53TGm2hHVPZYvFxoSEo65JDoMpN8o0KmOrgT4FVZiWPcAT9FWCbNZfewStDpigWv8ABI6xjcHe7ugP1+KRz8wItod1BJmuNntLeul11mHUpxDBY/Z6Z0joWOfNMwXLDbZ45DTfxAC5KUd42Ox0WphrnSRF7SQ4DKSDYkdEZouUU06FwOpNMc5hHMb9Ulg1oF9baqQt1IPNROBDSRfRREtaoeDZ+nNJqASdvFMBJGm6dNH2sMjeZBI+F1JA9waWtsR4ptyM/Xw80+mN4WeLWn5KQtBI5afqluuBqtWQa66JH7X5FSkaOdt1+KhkBt0sFKYrRXkGu4VctAkab3IPRTuBUP429bq2JRI28CAFVK8XDWsy2PU7/ktrMJq9sQvYyAnyAWHw/wB1tUb7vWzw59/ixNxdpcQmfQi7OsddjAL2t9A/L6spZKh/s4DP8yQ5Rbk7r9fuo52gZRsOXh4fX6BMw+PNXHXPHE3Qc7n9v16qssR1vAxifHJHHe8ehBGqMXeams7JlyXG9huB+oVTgiYMxLF2k+6wPB9Pr5rQwlgkmqqqS2WI5R4HqPr++GXxnKX8jSuYpGlSU4ihDRa458r8j+ijqauKEG512DR+XmFn1GISVDnNpw3W9z+EdblZdTVMY+SEAzykWkkJ9z/Sfr9CscTbuXZLnxwXnuqa91m92HfTmtGhpGwRHKBrzXP8NvcK5/e+6I7xvz5H6/RdNTVADHBwGa+3ilzJr4obHXZFUx9wWGnO681+0Xhg1zHYlQMvVRj72MDWRo5+Y+YXoss1RmOWN5BvplusyYvqScgjzX5PAPwulxNwdkzSkqPngpF6hxbwSKinqK2iiLK1t3mNu0vWw5FeXn4FdOGSORWjFODg+REIQrBBqE5NQAJEpSIARCCgoAEIQpAakKVImAQpqchAo2yRPTUANQlQgC77C7JmF00Uj1v4fTTPjPaRvHm1NexvaNB0bfUhYvfldG+OCDVs56SFzBc7KPRdVxDhkVHFTPppxOydmYaatPQrCioHl4MjSGq3FmUo7mU5cSjKolZkd7Hku2whmajjPILHGHsliywe/wBF2XCeFvqYWU7Y7zk6Amyx6vOtls0abE1Iklhrm4YezlkFPuGnZcbiHbFpLicwNrWXv9Hw3hbuC6p9fib48Qja4iLtRYEbANtrdeM4lG2Go1WDRahTk0l0atRjaXLOOMsgcbnVamFuzSguFxZT4tDC0iVgAzakLp/s7wyhxnEWUta9scbYnPBvYvItYX9fkupmzqGPc0YcWFyntsv4HiIo4gII2hxFnEhbcE3t9FUDKBvc+Kjj4do4MUrYJawNhidaLvC5HjdQxVMVFTvhbYhxNiOa5mTJDJ+PfB0McJQ/Loy8K4WixriGmpcznPc/PIcjWtDANdAPL5r1fDeC6SCrMlDGadjRaNrCRYjQgkb/AO/QKX7MeHDQUNRilfaOWqbqXGwY0at15bX+C0cX4yw7DmltFlnk3DzowG1tOunp81Rm1GTNPZj6XAY4Rxq5dlt3DmGdnmr6GjrA2xz1cLH6HqXDzKzzHwtBKYMP4dwqqq9WkQ0jA0a6EuttZYvD9RW8a40aZ9Q9tPG0vNtAR/KB+/Tzv6ZQYFT4bEGU0LWtG7juQep81lyXhe2bbf0WJxnyYGEcN0FUJzi1FT0rpu7GaOMRiA8nAjUnbfTwUHClBxHSvlo8ToBJQFzml4lYA+x7sjRe4628fBdgTSM7r6huawFmd4ix8FFRYlQzVwo6SaaWdzC7KG3AF73J5DzVDyTafBPC5Q3FqyTCKSjfJNmJlLHPPdzC2nl9albuHVraqGN92knbofJUKilM7XsmjbNA53ebzGh1HQqCmgiw6hZGJDkjO7tD69Vnk6ViuKkq8mjX0gzCZhtkINzyG5Py+rr5i/4l8SzY5h2HtcPu6dsr2g31JJFz6le2YpxXD7FW4hPKG4Nh8ZlldfWYjp4E2A6khfIHFWO1fEePVmK4g689Q8uy8mN5NHgBYLs+jYJSyvI+l/tmTVS2Y9jfLMpCaE4L05y0LdGmqS+iVBIJzTYhNShADhYnVP6a/NRhzQUF49UBZKTfUn4pwk2uVBfT1RYlLQ1ljtG5t9Ej5hkIvyVctN/mkLD0KlRRDkxDYq7hbiyN/QuVC1l0HBUMFZinY1TDLHHBNOIWkh0zmNLgwEa676a2BS5GlBt+CcX5pCPeDp5pJSwudyC1cZoIHRUlZh8RhjqGvDoQ4vDC1wFwehuFhzscMxPI2PmqISUuUanaJGMaATpyUoAFifrVZvauaPIpzaoiwJTOLYqmkXoY+yDmt1sLA+F0pDxlddo15eCqNrRc6KQVTC0aqHFjKUSUtcL3drfoq1TI2G2dzzfaysdqxxd3gb3OqysRLu1NzcDbyTQVvkryy2xtCvkD9W91nNxWw7Caacl2G1ZqRla5t4y0k5QXC3UG4WRnglweGNjMtVFM9z3F3vsIblsPAh1/NbuHxSYfhgkzUr31Do5o3RS5pIcuYG4GxNxfyCeXHRTF2+SnhpMUMwdoQ83W1wRKDjEjXXOZu3qkxqFklHDXxMDW1BLZADoHj97ErEwyudh2JR1DQSGnUdRzTQlviLKOxno2J4jDS1uSWRrWAC569CrWGBopi8Oac7i8uGtr7W8LfW9uFxXEIK2Wongu4SDQOFsq3uBa0zYaIHG74nFrfLe31/vDXAyfJqUOJyYXxBVkNuJo8jx+o+uviuhw3EQaaSma05JXZnNvY36g/X6nkcVGXEYJW7e6f2+v7rRdVGnhDIR99LYN/ceP14mrJDd12WwlXZqVtcHf4Oj+7/C+QaEf0nx+tFVLAwClpmjOeQ5Hz+v2pRPYxuQPa5wIzXOuvUfX5q/QyQBkk00zIo2uIcS673uHQb213/ujbsXAbtzNKkMWHwhrSHG2viDy+vDxUzXvmsxhIB0BsSXDwG9/7rLoS+smZHRsDGuIHaPFhc7nxXfP4RjpaeOR9XUioaMwkjtYu6gHYD65Xx5skMb+b5Zfjg5/icnV4I6rY5tTW10rCcphDuyBPiW67/Wi5Sp4Yniu/DaeWic0OOQ1LZA4jp0XotdhUlVJ2ntLHP0b2sPcJO2rToTy+isOtw/GKUFzZZJGM1OhuPE736/QS4sv0xpQ/Q5SnxrG8EaDjNM40gdl7VtnAHzB0XEcdU9H/FBX4W9ppK278g0Mcn4hbob39SvZKCuZUwOo6+NhD97gWPiQvMvtP4e/hlTBW0z3OpJfuw06iM7i3gdVdhyJTpqn/srywey1ycIhCaugYwQkQUACEl9UIoiwQkui6CRU1BKS6YAKRLdIUACEl0hQKCQpSkQAiEIQB3D6mpijyGsk8bKlFEyWYM7QXJ3JWrisvbtjBMTS0Ws1Z4gc1mZrGuXOg+OqNso0/smnwOWQF/aB7WbZSo2UtmdmC66t03aUsYeNj+G62eHqaTFq0RQx5j+I9FXPK4q30ho41JmVhWCz1NfBEydzA91s3RdPSwyYPXvi7cveyxD/AEutThnD2Pxlsc7xCxhzNeR7xHJRcTQywcTdnNGQ1xDWuH4gDuFzs+Zzntb4o3YMair8naYRinDtTwy6GqilOLG5mle46uvoANrWXmvGkmF+0NfQMeZGHvXFgvTeFMao+HZajscIkrDNHu1oLgemo2K5bivg3EXYLU8SzQ09PTzO7b2Zps6NrjYeHosWlyRhmt8LxyXZcbcHR5jiUcMuHdo5pD77J+AVseH1kc0bc2XlsqtbNLOBCGARg8lbwaNjZtYwQRbVd6XMGpHOivlaL2IVk2JV5nb7vIErdwSSmdiFIcQcezaczg3UnwHiq1HhjaeMz1NOfZ3G+ZvJVZnMjxEdk0mK25WP45Htj4NlSgtzO74q4tqcSdkzdlStsI4Ge60jYnqTp4bdVy7Hz1sxc4udzPh4/X7rPfMZH2Jv0/q+r/PxXXcHQs78pyua0XBPPqPrz/mWxxjgx/FGFN5ZU2afDFHU0FQ2SKV0MzgO8wkC30PMW8Ne6nxRlDAZcSnbmA2dq5//AK9fL/8AquNxPHI8NvFSNzzWAY4j/L8PPT8uY1xaaGevrmHE5XtMmrS46kftpy6eFlz5YXmfuZOF/k1rIofGJ3VHjOJcTYiKLByaWnItJNoXFvnyPl4+Fu7wHBGYRBkoWZXNNy8+8/qSea84wLGabh7ECZjHFNGLOZ/OPAddvlysVp4p9pzMv/42ncZCe7JMdvJo5+f7rLl0+ST244/Eb3El8nyeg+x3qxVzxOjnAs6SGZzW6dRtt1UtcabEKKopbNqG1EZY6wGx55hpouC4e4iGJ04fi1HPUVjjcyumBYBysy1gF29PO+pAjZE2KwNmDmCNvrqsOTG8bpjpbluPB/8AiLNfhOA4JhdK6N2DVDnPklifftJWWswjkADm8T5L5/cvsbF+HuGuLMCbhtd7T2dPLnbaYtljeBlJ8TrqCLbdV4f9ov2OYpw3QvxbBZ/4xgg7zpI22lhb1e0bj+obcwF3/TNXihBY5cSv+5g1eGbk59o8pCckslXcMAWSgJLpCTyQA4nRJ3iNEgTg4gEAoAblPVODAOaQDVKgB7Q3kngaeCSKx581N2YI3StjJWJ3bgaJzHM6g6Jr6W50dvZUntc1xF9lCSZLbj4L82QwvOmbSybhEj46tjo3vjmY4SRyMJa5hHMEbLPLnc7qWklLJ2vOwUuPxaFU7kmdbT4hiU2OUlVLUOlkiOcvkYHNjY3vOdlFgbAF3p1sq+IQGJwkDHOpqnNJBI4kmRoe5t/O4IPiq2A1c8uPUjqdwvE7OMzS5u3MAHr0t1W5xQC/B6DEYoWNiD3033DrsjY3Rge38Eji2Rx2Dr3AvmWJ/Caibo1KLkjnjG3Yx3KY6GJ17sI8lGax4eDfa3yT2VlgbhX00V3FkbqSI7FwKidSs1tI8eiue0tIFwl7WJzzppqpUmK4xZmS08sfuOLh5KvI+QEiS/Q3W8A1wu1yoYlTvzl9r8jZWQnbplWTFStGazW4XT8CNhqMZFBVOyxV0bqbOfwOcO4fIPDSuWILSrFLVOp5mSxktkYQ5pHIhPJWqKYs6VlYW4TUUkzbSuew2O7XNJv+ZCw55A2Xw3ukrMRqKytlrJnB8sri95I3cdz6nVV5pA8BwSQi4v8AmPOScf5F+OTKx2Q913JbPBNYIMTfEfdkF7eIXKRTFp8CrVNO6nqY54jZzHXCsasrTPTMQcJKlvMb3CZF2krnSRguPusDRezebvBUKauOIBjomntHN2H5rbocGzTZ6qRzogBaFps2w69Tf81W2oouS3MhwPAZazFpZu3ZT05BY6V13gfXhddZR8HuH3lM2CucB78cocR45TY/JNhZkaGgBrW90AaAdVLTTPgkzxOLL9D9cljy5Jv8WaIRiu0TS0tRSPHaQywvaSe8wt12C9IwLEWYhhzALdoBky+A+vh5Krh8tVQ4RDPUujkqZgJGwSnuxR8rjmTunUmO01ZidN7dSMbK3QTxnLb+mw94LjajM8qquvKN+OGzleSPFcHjEhey7C4XIA93wA+unQDLtNRv7NxzM3AOotvc+P1/Uu2raZznCXTIQQHcgPLr9eBxaylErS0t727Qdz4n6+e1WLNapjOPlHKYhhFPVt7WNoa4+FgTzJ8ProVhYnhLK2hlw/EGGSnlFr82nk4dCOX1br7GF5a4ktPPmfLw/wB/6lXrYhkd3czeYH5D6/Oy1xytdlThfKPl/iLCJ8ExaaiqNS3vMfyew7OWYV7N9rWDNq8EFfF3pqM3cRzYSMw9ND6HxXjJXc0+X3IWcvLDZKhqLoQVcVCFInJtkwBdJdBSIAChCagBbpLoSIAW6S6EhQAt0hQhAAhCEAdayJjZwGuP/stgUl4g5xIba4tzVzFqWGWbtaVgFhY6KGWaWfs2S5RGwW7q4ryudNHU9tRuytHE6anfI5tmt0FitnhnHJKPEIxHAwBrLE7X00WFSi9S9rHEx32uuiw7Dad9dJK+btGiPXwSZdtNSGxqTacTp5cT4afw6HPdW/x50ubswLRMbf56a+azQRic7qqerPaRD7sE7K9hnDUvElM+nwWlD5YBnfK52UDwusjDKWWiqpmTxWfC8hzXeGhC52RR2va+Ub9JayrfyibD/tSr8OnNO+ggkygtdmcRmHIjooOKOOaziKhLJGmGJhzFjXktvbkFzmN+z1Nc+RrQx4FrBYcM7WVD4pCQ0q7FpsbqcY00acs3iltk00xvtLnOIaFLE+QDOH2tyWdO9kdS4Ruu1SxyjISV0nF1aOWnG6Zv0uN101GacyfdDkVbimMtPd9rjmsChLTE543XQdi6LC2vLDd+3is21RyJJeTU5N4m39EDHDmbC/wP19aq/SYnPSk9lI5p0JAPzH1+t8fK82IuB4qeOEltjew+X19dF13FNcnCTafBsR4rJmzmzyd77O+vrTa8/GJqujZTyy2gY4vZYaxuPjvbbS/TnYnBZC7XfMNdOfiPr9CpmtLBn5Ebcnf3+uoSe1G7obfLo0GyOc7s337Qe7bW/S31+oXR4DhbjIyeoeO0B90cvTr8/BcxQ52Fsoe4PYbx62LOeh+vNek4di1BWsZS4+0U88jAYsQjjty07Ro0I8R6rJqpyiqiadPFN3I6XAmxsq2xty3J3H52+rdQvQYosrY2WtzBG48R9f380NPVYU+B1W3tGWzRVULszJAOYI38vkN16PgtdHXUcTrgm3vDY+IXm9QubR0W/jwcN9p2HsonQ4jBIYG1MpbUZTpmto9vS+t/7qp9nmKzUeJGhklPsVTe4Jvkk6jzsforuuLsGjxzCTTPeGPY7Ox5FwHWsbjoQV4hXx13CGKiKpzNha4ODveEfRwP4mfktWnismNryVbq76NX7WPschxR8uJcMRxUuJm7n0gAbFUn+nkx/hs7wK+d8WwbEsIlEeKUFXRyHQNqIXR38rjVfbfDOMQ49grHxub2zBZwvew6eI/Sy0JqCjxmgnw7E6WGqgeCHRStzNI9f9xyKv0/qWTTrZkVpf3M+bTRn8lwz4FHigL0P7Vfs4q+EuJfZ8PhqavDaprpqR7WF7g0HvMdYbt68wQV54RZeiw5oZoqcHwzmzhKDpiouhHVWiiXKUAk6IUrWiwJRdEJWI3QFPEhA9UNLAdU9oZYpWyxIO2fYackj3tc4mSK56jdSDLbTkUrpGNF3O9Et/Q1ccspS9nszMD0KZE0OcG2BJPPn4KaXsnm7SQeltFq8M8O1uNS/c08joGkZpANPIFNPJGEd0nRGLDLLPbBWzX4Yo6YY3R1MEcnsbZW99zej23576HY3XRYlwziOH4JUUmK0ZfJU3qKaSmOcykG7QTfvNF5LgNzNuDeziuql4Tlwngivr6khj6drXRxjkLgX81o8F4vQcQYa3CMWfI0Fwkp545CySN9rXY4atNiR4gkLz89XJvfDlJ8no8egisbj/yPBMkdrgX05IyR6XC9Y4t+xrE6Iy1XDsjMSpS4llO0ZZmi+wGzreYPgvMJqWWnqZIJ4nxTMdlfG9pa5p6EHULqYdTjyq4uzj5MEsbporhsYLTkuPFOa1uoyBSiIAHM61lNDAJXBsIe91rkNaXG3XTwVrkkKoNlcDawAUz9naaJBlto8EaJH6kqLtk1RRqaSJ2YgWO+hWQ4WcR0K06iqIeWsF7HcrPlFzfmStML8mHLTfAkYu4DqnOYWOLSmNBzDkteenbVU8ckEbRVF/ZdhC1xLgGiz+epOh+KZuhEmzHsVo4LhslfMbzMp6dn+ZK/YeAHM+C6/hr7LsdxfLJO2GhgNiTM677f6Rf5r1LB/svkooImYc5gk3JMdy4+Z1/LyWTJrsMON3Jox6TJLlrg5PhzAS2KGmwxrXyvOjXP+8k8gbfALoqellglcJo3Newd5jmkG99Lg+JXdYLw9i/C+IQYkG0+LljcssQYGStBFrtJ0dz6bqljE0ZqnNrZHPp5nPdS1kjTmuDq2Qb87WOrdwLaLF+2b5fHlGr2KRzDm20P+m/5lanCeF/xjHaeneLQC8sx6MGp/QeqfXYDiEVG6sNPnowBeVj2vAHMmxNl132bUDI8IqqqfuPq3hoJ5MadvV3/ANVXqc6jicov9CcUHupkXFuF1bDJicLGva/WVrRcsA28LAWVTAallaCySnjZKy1y1uZxHmdvVehOYHRljnHKRa2zSPzXMU2ASYdI91IRJCXX7vdsOn+3wXKjlThtffg2R/KzaoqggdmLt6t3PqfrwKgxCla8OdEwXG7Bz9f0/PmlAJGxkPAyC5Gvd+P15KR8rh0Lep0b/f8AJZr2vgtq2c3iNPn+8J72xI3PgPr56jMqu7TOIFnBp0Gzf7/v6nqq6MSMLmkgnTUWP/qPr1XNYqzsaOYnZrSR4X6+P14rVjyblQrjTOHrx7YXUkneZK18RH+ppH67r55e0scWO3acp9NF7ljWICjZLUXA7MZ7+Wq8NleZHue73nOLj5nVd7066ZzNbVoZdCELpmGwTSnJiABIlSIAEISFBAqahIUACChIgkEIQgAQhCAPVat09HRztEbXB2tzuFzc80xaADYLquMo3UuMGAPD47ZhlXOzODyGtaAfFcPStOClXZ19UtuRxRd4Wpmy1bm1DmtY4e8VKx7KTFZIhP8Ac3sXt5hVo6eVkF4yHHmFUcyQvJGW/RPSnJuypNxS4PZuDftMwzhXBqmihpWS57uMl7OJIt6rBpONqSulbTVNFFFTF5eXt1IuvLJhMXHNaynpI6l7yISdeQ3WaWgx05N8sux6ialwj0HEMAwSuxZs9HWtjhf7wJWFjXDFBHVPFPXMePNYFdhuItpbiGZrTzsbFZNPR1pnGsosddSmwad/ksnRdl1NfGUOy3LhcbKgxiQEjxQ3DhcsFyfNWP4ZNFWRyGQkEa3K1YsPLZWyh/jZaJT2r8rMybb/ABotYPw/U1UMVPHSnMSO8dl0/GsDMOwelgqBG17QLgfBdh9l8eG4ji9LTVk2RzGF3vWzEDQXXE/8RkFFR8SMiw6oMjezaXNDswa7pdcvBOeXVRi/HJvyzUcUo+a/9HLQRxv0a+/Ma7+H1+6sNhDLEPAHj+X1+gvwsOJVEFg1x06qwcbncLONvRem2s4G5HYy1cMIsLOcNQNrfX1vpm1GIl782hN7hvRc06ukl3ebKWGVvMlK1Q0Wjo6XFqmJ1yGyR82yC67LB8ew6vggpq0uo5GEBjnjPH5X3HzXnNPLGSO9Yq+2R7Wl0WQ33HI+izZYKXZpxyro+isCdU0NKBTGKpw6b/MppTnif4tcL5XfVlvYVAIHudhMj8gGaSklI7SM9f6h4j16L5kwnifGsEqBJQVM9OObWm7COhB0IXpnDX2wUdRLC3iGnNPUMsG1lKLZfNvTy+C42o0c1bjyjfjyRf6HuVJWGUDMC1+2U/ofr0WTxngEePYNJExjTVxAuhJHPm0jof2VzAsRw7HKIVNDUwVDXDV8JuPUcir2V0e5c4t1Bvr5X/dcyMpYp2uGh5JS4PnrhvGKzg7Fw4h5w5zsrmn/ALeuoPh06L3WlxJlXBS4lQuD2OIa+35H5W+gcTH+GMOxmWaZwNPUP0c5otmPi06FcxgkeI8AYqIq8dtw/VERPkFy2G50NjsAT8CVuyvHnW+PEvr7EipQ4lyj0bFo/b6vDagWbTUsjppBexJy6D5eq8j4l+yKg4ppqbEaCalwWqk7Q9lFTXZMXPu0us4WsMwvqV61iP3dDUtjddskYY1w10cf2vb6umF5ZIw9ujLZDGfwAbEfLX/SqMOaeHmDphPHGUaa4PlHi77JeKeHHPcaL+I0jQXe0UN5AB1cz3m/C3ivP3CxIIsQbHwX3JitY6jraOoY/L2gsWbEMH1+nJZfFXAXDHF5dJi2HMjq3D/rKa0co6ajR3/sDy66dTB6tKNe9G/1X/gyZNEquDPiwuskzE8ivcOIv+H7GKZk82A4lS4ixpOSCVphlcOQvq0u9QvH8VwquwmsfSYpSVFHUsNjFPGWO+B39F2MOrw5fxlZhyYZw/JGf3inNJ11SkW0TPxFaeyrol7R1tE09VLRU0tZUMhhbd7tPLxXpeC4FguFiCWcxTVQsQxxzF7r6DoP7LNqNTDAuVbNmk0WTVPh0l5ZU+z37N67HWxV9dG6GgvdocLGT+y9y4e4cpsOAZHGA02ucoGyyMZq5hh9C+PE5o7ub9zG8NaW8xlCrPxASsYY5fvY7iRr3HUW3HyPxXmNVqM2odt8fX0es0mjhp4NR7+/LJPtmxR7eFn4Rh7JJqyrcAY4mF7msabkm3iAPivIMEpcbjiEtPhmIfdmxtA7Qj0Xo1fxRHAw+xgF9yTyup6rjA10DvYKF0DpPfc5+gOnu215BPhc8OPYo3fkWUI+5uUuizwXxtiFMBFilHVsiaNXOhf89F1WOO4Z4qgacSooKhxb3ZOzLZG+TgLj4rzDEK3FK+oYyoqJJASLxxmzfgOfmvSsBaY44xUua95aIwAb2tz/AEWbMljalHh/oy2OKOW3JXRwOK/ZTg873TYbXV9K2xsyVgmaD53BWfgX2acR4dO+SirKDsHNc4hr3Nc45XBpva43621NwV6vWSCKnfGLbWUOE8Q0dK0R1Dmjs7XBPRStdn21d/z5Il6Zja3wjz+h4RxbwPW8PzSzPop24Y5+WCYua8Acg4t2PoFytRFkY8h7hpuvrqHFKfFoJ6dkEUtM4e84XG+1iLLm8W4IwLEMxlw2Jut/u7s9bBa8Pq7XGWP9jm5PS7bS+L/U+UhBK4Eta53kLrSwnhvEsWlbHTxwxA69pUzMhZ8XEfJe/s+zDB45s7WTn+lz9Atp/CtIKCSnp6dkV2nL3QbHl6LVP1uPUEUw9D8zn/Y8lwz7JZ6d0L8Tqqer91xgpX3AB2u7mD4L2vhXg7DqKlayDDKalNtezZld6ndeH4xhTo5nuppJ6SqiJAMbyyzgfC3Pmuu+zb7Xa3B66PDONXOnpHEBteR97D4ut77fHceOyM7zZ8e6Mrrx0Ue1HTSao9yw3BYqR2e178itMwAEGNoA3P19FWIMlRFHLC9kkMrQ5j2EOa5pFwQRuCFNkDRYbfX0CuG5N9kudlJ1I2Yjthex7rhy+uqoY9gVPjdBLS1TAJbXZIBrmGzvMflpzW6G93kUPbmAI0cNQfr4KYzcXaEcr4PIsGbiuD4n/CpWNdDOcr2vF43t5vB6W5/qAvR6OibR0MMVHGTExtmFrbi3QHZLjOHw10YJYDJq+PMTYOtrYddFg4BjckXaU9abFjrB7jpv0/ey0ZJvItyX8xorjg1ag1Ys6Klz23be7vPoFE2aSWQNkjfA+xuHAkj9AjF+JMMo6N9RJUOeGC7mxML7egFh62XMN4/ZiRMVEYKNh2fUHtHejGkAf/IqjmrLYqT8HSGiznM6eQka2vc/DYLFxrHcFwUXr65jJBswOMkp8mi/6qnNHPM0ipxGadrxewb2cfo1unxJWLXYTSNaSBGD/RDlSwkm6L/bdcsqYn9p1DDMI6OkrHNdoDJF2Zv015KrjPEntlEM1oo3jM5t7k+ayOJGYfHTMbNfO0XbYgFee8RY+KaO27iLMjv9aLo4dOsjWxclWTIsabkRcf4y11OKSF13S6utyb/dcAVLVTyVEz5ZnZnuOpUC9LgxLFDacDNl9yW4cmoSK8qC6RCEACEIQAJqEIACkQhACIQhBIIQhBAIQhBJ6XVVlRT9samHPK4WLpLkhcrLWHOSLrreKqt1VXFj7NYPeA0usoMoHljDCQANSOa4+nklBNrs6eoheRpM0OBY4MSxiCnxGR0VK4EvcDbloCeVym4xFSNx+qp8Kc6Wma+zHE79fmsumc6CR/ZOLRsLdFZwek7Wsd2khadwbonCpvJfFdCxk3FQo7Lhr7OsUxnCqivNMY6Rl7TudZunzOqpUED8AfLP2bXTNJYOY06LXwLizEcEweow59TLNQyX+5L9ATusN0ntcTjNJkjFzlXPcsknJTfxNmOKtV2W8X4ydJSMiMLALWNguYjxdsrnAANBPRE0lG+Yh5u0dAqFS6nZd0Q+S0YMcIKkgyynPlvovTte8Bxl05K3SFgjHbSG/Jc0a17zubDYKUzyBgN1olidUZ4yadnoPCVE+sxdkNLUubK4XBvsr/EuF0eH1z4McJkkdYtn3Nj1XD4PjFThtTDUwOyvHNaWO4w/GagSVUmZ9tVihhye+nfxr+ptyZI+zT7NVnB2HVsAnoqiJ7TyJGiYeBWgd6nZIOrSufp5RCCI5XMaTqAbLZwrHn09S3tqt4htzK2TWaKtSsxQeKXcaNWi+yuCthDy0xX5KtWfZFUsBNHUgkciVos4z7F4EVUSOtlZfxo97mk1Q8wsbzaiLuzSsWGXg4Wu4GxrDnfeUpeB0UtDgYkpXSTZ4ZGn3Rv8F2OIccGVps4yG1rkaLl34ga2Zznvyh24GitjnzTXz4FeDFB8G3gfDseIRMFPUs7Q/hK6mP7NKWeDJWgCQjRwXI4TV0WGTsqO1DZG7AFa+LcfzTQ9nTB21r3WTI88pVB8GmMYRjbOYxygxXgDGBNg2IywuJ0dG63oRsR5rv8Agr7dmnJTcXUdri3ttK3/AOzP2+C88a6rxuaSSucXgDQHksOpwiMSSASZSDoLLdDTw1EduTmS8mLLJ43uj0z61oa+ixmmjrsFrIa2ikP+ZCcwB6OG4PgtKaGnkoKiOuZG+kdGRK2T3HMtqD0Xx3gVdjnDeICswWeop5Ru6LVrx0c3Zw8CF77wn9p+H8S4S+jxuN2F4k1ueovGTBMwblp/DfQZXddCdFzdRoMmF7ocx/yi3HqFkW1mlw0+oiwqjwHEpjHVMe50DhJmd2AJ7MOPUXLfRpXS1M7opIoJmA5xd8jNBlG1x4/l5LhaGrpMZmqsQkdGx7CSwXsY2N0ABHgLfBQcMcQ11TWVYq5c7g8vObcDkB4c7eBUSwOVy+u/5ssU0qX2dfxUTPVQZSS5keZ3UXOgP1utKkqgMNhLj94e75nn9fsuPlx5s0k8r25nl2RreZOwb6fsr0NUYKenDn5pJJA1o6E6uPoPndVyxPakxk0dbDUFxb3iANAefifrr4q/V4bh2O4f7PiVFS1tNl0ZURiRtuuu314rjOIat1KGU0JtJUHKCPwMGh/b4KbDuLYqWlqXlxMdK1rSS09950A9Nz5Hqq1jlGO9EShve2PZ579o32RcOSMc3hqnlocRBDyztyYA0/hLXXIJGosdNL7rzqg+yDF5qj/GTU9PEDqc2c28AP3XvklRHJGZWSdqZTnL73zE8ysSsqXZSxhAJva6sxeo6iK2qX9+TqYfScEknOPP+zyzE+FI+F39lTSR1Vx3pGe8PMcvRQUWDS1r2SODSwajc/kuyxZlK9jvbZWNedbk6j0XMVNVDS6YdNNm/mvYLXDNkyx57+x5YMOB8dLwdBUiGnoYmezslmIsCHH87rHrKCMTh8lm5rdztHEu8LXWTWcQTiaATyAOLrXaLFemV8uDu4fhnbkknc0OYWtsb7+arlGWKr8l0csct7fBz+G4XQuLnS0rRGG7u6+C3sG4Yw95a673XH4n2FvJY+JY1SYfGx73MEEjrWPIaX/JZ0nFuZ98KY9/IWFmj1KTblyfjY2R44d0eg4VHHT1UkcbWROjdoLAXH0V15jg9nMswiETRdzpLAD1XhE3FFXTU8tRXvh22aL/ADXAcYcfYtxFGKV87osPZtCw2DvF3VTD0zLnnxwvLMGr12LFBO+fo9b41434RpKh8VFW4jVTNuC2jeBFf/U4fkuCZx1R09S2aiwSPO03D6mofK6/XXReZdonCQ9V2sXpGHGqdv8Ar/4OQ/XM/UXX+T2yg+2WphsJsJpXjY5JHNut/Dvtnw6VwFdhtREDzjcH2/JfPUbyLK5G8khJk9KwP/jX9SIeqZXzLn+h9UYV9oHDOJFojxNkEh5VDTHf46LqKUwVcPbU80creRjcHD4hfHUbyD4LTwzFq/DJhJhlbUUr97xSFo9RsVzcvo6X8OX9zXD1C/yX9j2z7Q8CPthrYW3YRebL+E7XPgvK8dwz21hc2zZGe7ZbeD/apjNPnjxWGmxOB7crxI3I5w8x+yruxfDKyoc6jEkLXbRzEZm+F9irtNjy4fjNdeS3JkxZ1wzv/wDhr4vkDqjhDFJTdgM1CXHUAavjHl7wH+pe8Odl0drbQgfP918ZVGInh3iXC8bongTUs7ZbDmAdR6i49V9ix1EdRDFPA4OhlY2Rp6g2t8iFk9QxqM1kXUv9nOcdsnEsZwL5jpuf1+IUZqIzq1wIP+37LPxOXsqOUk2s21/kuTw/FixrRn0cefibrmXfRfDBuVnVYtJOMPqHUjgJ2feRkuygOGtiTsDt6rEp6ilqW+2swmobUyWdK2Rg7riNRexHwVWfGo6ehq6184kjhzOcwG3ugm36LzXhDiTFYo6mpqOIa1/YEyPgeczNdmi+p1JG+y0Y8UskG14GpQdM9WwTFqXEpKilNI+GrgFzTkgtey+7f1C5/iLg3B8fE8uGOFFXgkuDAMpP9TP1C0f4pN7GzEK59O2RjL9p2YuLi55+S4fHuNKcufiLmU4kjuGljbSOI2B13KTHGW/4D7fLM6LB+IMNp66gnfKxwaDTyMlu0Hz6LnYOJK6mjqG4vUSxthF3ukdt/urWL/bIIYCDFSyzDQFjSXH52t5ryriHiGs4or3VNWGRsv3Y2NAHmbbnxXY0+knkt5Y0vsonqIxaUHbL+N8Vx1dQ8Ul3vcdHOFmj9SuRqpJZp3yTuLpSdSU6opzGe0j2v8FO2MVkOZlhOwaj+YLtYoY8K+PRzsvuZW1LsoFIU8jkRqmkLUYmhqROISWUkCIQhBAJqcmoJBIhCABIhCABCEIAEIQgkEJqEAbz8QkkkL5HucTuSUe1nNcArp6Lh6CS2ay6jC+EcPNi9jT5rj5NZix+DoQ0+SXk8yFVIdgVoYZVTNmDsjjbwuvZaDhzBYXDPHD6rveGqTh2B7M7aRtutlgzeqKqULNOPTOLty/weA1NPU4jSiWhw+rzg98sidl89rKOgpK/tGwz00rGP0LpGEAeei+4KCtwxlG32aelbCB+FzQAuc4gxPASH9pUUbz4OaVRl1Tx41Su/wBeiyGT3Mn4tf8A38j42xTBqllU5tNDK9vNwYbE+CzX4RiNrGmlHm1fSGN4/wAPwvcGzQemq43EeIsJkcRE4OPgE2HXZWvwLJ4Yt3dHjzcFrQf8kqR+E1jR32EBeg1GNUYddjNFnVWLwytIjZota1WWX/EzvDBeTjTQ1QABBsEvs1TuV0E1U22jVU9paTsrY5pPwI4L7KVNQVUxs06qyMEq84Dg6xK1cMqxC/MQNVvPxemcw2AzAWCpyajKnSRfjwQa5ZzMmBGKPOXLPqqOSNpyu23WrieIve+zCMoWcazNpJr1KbHLJ2yJqHSKjQ4MsSbop2uc8XJtdWZnxkaEK1g4illLXECyslOotiRjbSK1WzKwEXun00oY0Ei5U+LdnFJkY7M07LMlnEbTcpYLfFDTaizqaXEmNpHdmA11uq5ybGKumne4wB7STY2BHxWTLiIaHDOQCoYK2TVkVQLHkT+63afT+3b+zPqNT7tL6Ogo+JK0VsXZRRteTo2QDKfO4K9CfjoruzZUUApHz5famxnQ5TZoFtMtxmPWw6LyKF5M8WZ5dJmFrbbrtMIqRFVsleLttqCPl9dVObFGXNcoqx5HHj7OuxnD4KHNFh07zDMBoT3mtG9/X/6rMwDEpcPxd7i/uuBudxYbfPVZNXiksk8kpJu4ZAb6hv1+SrQ14EpfpflfoEkML2bZc2TLIt1xOsZiXshEsx2u7Lvdx2/UfBXcL4gnqpxLM7RhDWW5a3J8+fouEfO+Ul7ySTqL/JaOHT5ARf8ApFvmfroolpotc9krM7PV+LMXgkoJKuN7A6Z3YxC/uxjc/XIhPwbCR/y201DQXzkzO1JBvoD8F55Q1TaisEtbMIqKmb2ktvwxNIFh1uSG+N13VVxrROdG2KRpikZlb+dh+S5GrxyxRWOH83/4Ox6dH3JvI+kM4dc7DZaujrXXo3Avicfw+HyXIY3jck8zmQfdxA6OG5C7ZxpsYwx2R7XOLb5WnUN5LjqzDKCKmJqZpW62bI2x9CFl0+3e5TXJ2Mu9KoM5qUl5zE5nc781WLTnytYTy2XXs4fpzTGpoZ21EY3JO3mFi4jHOZWwxwt7Q6jKLBdCGaN0jDPDJq2Zc3C9Ti744mObBJbNd/L4J9ThuM4fDHS4jic0lKwZWMY6zfK6vS4hUYTUBr4BJdgvJc6eCmxrEHVtJBna1rTrYPuT6Jt85NJ1RMYY4J1e4xc0cDGgRxuNved3nfEqCWuynvODR0XS8NcJOx2lfUQyEgGxjaQLDxJ69Fn8XswHhfDJBUYZFU4tISyNtRIX5CPxEXtb0TQywc/birZVlhJQeSTSSPPuJ8VdUPbBG77pmptzK54uJSueZHuc61yb6CybsF38cFCNI8pmyvLNyYoUjd1GE5p1TlJZiOvgrsOpHxVCLfTorsbsoKqmjRjZbj2uVK11gqjZO75lTxvBsCs8omqMie9xqgEgpo1NxsnA6KosQ2shdVNDg85wNidCvrf7KcTdiP2bcP1LyTI2mED775mXYf8A6hfJjCQvbPsI4/osLifgGPzx09K55kpah+jWOJ7zHHkCdQT4rneo45ZMXxXTLMbSlbPWeJK2Clw2R1fOIBICW9XW3sOe/ovLqSpfLMah0pbFG3OBtpyXTY9wnjGMcS18mJVjYMCY4ze3SPbk7EgZWsubXFzv3QdTc2XnfHPHWFYJJUx8LvZiVUWCGN8bb0tOA0NzkuF5pNLjZl9ddly9PpJS+MeW/wCyNn7RjxxtsbxxxNSUGAjC46uOSolla6ZjTdzR71jvzt8VmcF1LsQmhpGAOiMmcFjtb+Wy4vgCiouJMWkosQl7OryF0LR3e3dzBsN7XOm+q6usZhnC8JkmndhdbGTaEgulc4eA99hvo4EWXTeJYU8MU3L+X2Z4TeT942lE9E40x/DcHwyXDnl01U1odMxgaDECN3k6NHPr4L574j4kFdI6HDoWwUg0zW77/G/IfP8AJV+JeIJcZncGtdHTA6Bzs0klr2Mj/wARF/T5rCK26H0+OJbp8yMeq1rn8IdDdVboJ8jg12yghsTY802RhjdcLpSSl8WZMdx+aOkgtcENa4dHC4I6EKjU0z6WUz04IjBuQNcv9k3Dqu4a1xsQtZklrW0usD3YpHWjszRX2Zr4466PNGA2oG45OWa9hY4tcCHDQgremw5rj2lM9sUnQ6NP7H5eSqTxiSQw1bTDUN5kfVwrcWZLhdf6M2bTN8vv/D/9mUQmqzUUssB747p2cNiq5BWtSTVo58ouLpoajklskUiiJLJ4Y47Ap7Kd79i31NlDkkSoSfSISEllPJTzRi743AdRqFEpTT6BxceGMsksnJFJAiEFCABCEIJGoTkIA7aHFZG6hxCux8QTNbYSuHquTEotuo+373vLmvSxl2jas8o+TparHKh5/wA5/wAVUGKTk/5z/isZ8mm6ayYA7qVpopcIh5pN9nTQYrONDI+3mp3YnKRbO74rnm1DQ3Q6pBVi++irenTd0WrPJLs2Jp3kXLySq8dU4O94qg+ru1RtqgE6xUuhXk5Ng1hJAVumfn3K51tUM2ymFe5ujGlJLC6pFkJfZ0lS0NjOuqynzWOh2VGSuqJG5SHEKA+1SDRjlEMTivkxpXL8UbcdWAy1wmGpJf72iyY6WtdswhWWYdWncEKHGEfI0ceafUWack7BH3nXPVZctS3OTdWGYNVSmznGytwcNuPvqFkxQ7ZetBqMnUTNFW0i10RTTNkDoQ4Fb0eBxRHVWmUUUY0aFXLVQ/4o14/Scj5m6MCRlQ+N0spJIWMcSkjmuWtkYDqx2xXYYi0CleBpouRrMNdDRR1sbs8L3ljtPdd/dadJkjL8v6GL1DRvDxj5pWzboYsCxbI1pfS1JGsTnbnwOxUeJcNOpgXwvL275XNs4ea5PVp0v1BW/h3FFXTxiKra2riHN5Ifbpm/ddCmujiqX2UQwwzNLgRlNzZdJh+IZogwHMG8jus7+IYVWTMMxqKYm4ddoeAeWv8AZXI8AfUZJMHrIau/JjrOB8kr/UsTS6NKrnZDTmZxJAs0N5klRUdVTTvYIXN7RxI7Nxs4W8D/AHUFVSYg2kbFidJMIQczZohe3iRzVI4bNK0upZ4qgXvldo4eh29EnBYjeLpBJkcCHNOoIsR0V+mOUaEjkqVJSezUsIc68oaC85r3P1opqZ3byiNrtL5XOGthz9UthRFxXibabCYaBjrS1jhPML/9phIjb6uzO9GrCoqwhoaZDYbAnZQcbRSsr3VM7mAzm0cYN8jGizR5AALnoqhzNCbhEcNxvyNHUOEqXR6VhONVdDO2SnmI5WvoQuqZjLa6meSywv3gea8apcQLHC7jZblJir2A9nK4BwsQDa4WLNordpcnT0/qTiqbtHolHI7D5TK2QxQuOovvzUFZxFGyodJT0+bMDmzOIF+oC49uIl+XM4nTmVL2zJG6myqWkV3LkvevtVDg067FzWutNIGjYDZYmJT9lC7K4OFtCCpXxxTMHatabbLMxCGHsyxj2tv/ADGwWrHjjHhGXJmm022anBvHDsDZO2SR1i3RtiQ4jbZcnxJjFRjmKzVlS65cbNHIBVqqm7DUvY6+2U3VVasWmxwm8sVyzn6jWZckFjk+EA0F0vNIlatRhFKAkO6EClqAXVkmzR5qCnGg6qSQ7KuXLL4cIlY69lYadRfZU2nvW6Ky094KuSLYsnbIWnqFK14Puqo076pwJbqFU42XKVFzW99vNPD7G/JVmyZrA6HxUnKyqarssT+i9UcUYn/CBgFVX1LsIMgmZTF/3dxtp0HTa+trqoQC2yqV8Xa0+cDvx94fqkopc8I11TqKUbiJualTKuK01me0MuHNtchZDnFx1JPmV0lWQ6iqA7+QrmVoxO1yZs6SlwLzT0xu6eegVpTRdghaaYB34tfJNDb3jf73I9VKLtAA5JrwXAX3GoPRUN2aY8FJ7XQvWhSV2ga8qO7ZRkksH/mqksLozopaWRVLslOWN7odHTxy3bdpuFNHLDI3sqmBk0f8jyQW/wClw1b+XguVpquSF2h06FatPWRzNyk2d0WSenaNuPVqXBqS0kQa72GoJYd6ersCPJ47rvXKsqooo795slM/o8XafI/7q0JXN0dqPFNkmtETo0db2CIb4+QybJLlGXJT9m4h5aRv3De6iLgw6AN9LlOqKxl7RgnqSloSJahjHxkh5tY8/Ja7aVswqMXLbEZ2ziNJnDzal7aWJw7QAg6g9V0dfwjVUzIZxFIylnIYySXutDyzOGlx01bqFg04ZIyaGV1m5HOa62zgLj47eqSE4ZI7o9Fk8U8MnGXZp4a/tHNaLd7xU2KYA80ktXSxn7vWRrRpbqs7AZQyWNzz3WkL2LhbFMCfi0z66nth0jeyc0OF2kgd74rFqc0sD3RVnU0mGGpxuMvo8Hc1MWxxLRw0WOYhTUzs1PHM4Rk827j5LLsMq6cJqcVJeTg5MbxzcH2nRGUikITS1OVjUJcqQhAAhCEElplLUu0DCpWYZVO/CvRIqCAH3QrsNHAPwBcaXqLXSPQQ9JT7Z5xHglW7cFW4eG6h2916TFTRaWYFbZAy2jQs0/Up+DTD0jH5Z5vFwtMdy5XIuEXHe69CZDpoFI2E30VEvUcr8miPpeFeDhYeEAbXCtx8IxN3aF2bYiFHLoqXrssvJoh6fgX/ABOeg4Upbd4BTO4ao42cloyyubsVUdUPOhKT3M0udxoWmxR6iUBg9Mx2jQpW4fTtHuKznukkfYKXOb8l0MEF0hjKeBuzAkkawbNAUbpbKF86Em2XNJLgnAso3PN9E2OS+6CRe6miV0NeeqgebpZX66KO973ViQjZTxDWnk8lLwrg0nEHCuMQU4zupfv3tB1DAdSklgfV3gi1cQsfCMSr+E8VqIxJNHHURmOUMcW9ow7tNtwtcIucHGL+Spr+hxtVkUM0b/Fpp/1KfGPC9bw1VwQ1bHNbPE2aIncscLhc34rax6tlqZo4HSSPgijvDnNyGnVYh3su1pnN408j5PMayOOOWSx9A1OjkfE8Pie5jxs5psfimIVxjOxwTj3GsNb2b5GVkJGUtnaHG3S/79V6JgHFX2f8SwmLiSidgmJOJPtUIPZO3tqPd9RbS68LTwOqozaaOVfT+0XY88sb+z1zivBcPw58ktBjlDX0DQD24fpc20Fve9FxE3EckDTHhzWtA0Erhc+YHL1XNiwGgsguTYtOsapuwyahz6VFmWrmkeZJXue92pc43JUTpRe+VvwChLrpRqrqRTbJe3d+FL28vIqHQDolv6KaQbmSiolB0c4HzUrK6obtI/1VUuSFyikCk/BoNxSqGhcCPJVpZHyvLpHZj1Kr3JS2KFFLpEuUmqbFcbJm5SuNykCkUclKaEp2QQHNKNSmjdSQjNIEAXI9G9EPNz4ICYTc6qC2ySM9+581PGdCfBVm/opmnT5JJIeDJBsU8O7ov1UR2FikJtYeCrossmGsob0bdWW5gQL6Ksx33zttAArbDz0SSLIDmO0IIVCFvY1T49huPJWKmURljjt0UFVmLoZNL7EKIr/JM3/gMRlyUsrdiW2+JWCtDFJLhoB95xd6DQfqs8DVaIKkZcruQ+MAk3ToxeRo8QkaNE6LSRp6FMxTSBHRNcmGQBNMmip2ss3oWRgeLHTx6KPtCzuyi45FLnTS4HQi4TbfshZK6B8LJAC1w/VQGB41abpSy2rD6KzTztPcmah3FDLbN/Q6hq5L9nIC4AaE7hV66qMzsjT9235qWqkaxrmxm99AT0VCyIRTe6gnJpbbHNc1kjXWzAa2K2sOxOJjY7sAljkD2vIudFhOCe2J7h3QVOSCmuQw5ZY3cToeKMelxOpjHaPLGMYMpcbXa0NGnkFgOlIa4A6u5qJzS07glCjHijjioxGy55ZZucu2Wqebs2rew/ERHTGz7uuHG/VcuCVKHuDMuwSZcCydl2n1ktO7RPWTmpqpJnHV5vdQXQk2V8YqKpGKc3OTlLthdF0iRSVji5NuCkQgkEIQgD1pjlZjes9rvFTxuXlZRPdI04JDorTZbc1lxuIA1VhjiRuqJRLYs0G1HipBUkFZ7HaqY2AvYqtxRZZe9ozBVp5SSmtdpoCo5HcrG6VRpjqSIpHX3VZ2p0UsziOShBJV0VwRvjfY4XAUMxKeRIdGg+gTXQSv/CVKX2P70Uiq9yhcdFbNFK42ylPOHPaNQB5lWJxXkrea+ilG+ykdJpsVOaZrB3nhV5HxM3ddHDB6hpdEVnOOykbTuduSq78Rgivq1UKviOGNpAdfyV0cc5fijJk1cYr5So6KidFRyiTS43XL8aYq2pqQ+JrfEgLGreIZZiWx6BZhmdKHFxJJW/T6KUJe5M42p10Zpwg/6kc73OyZjfL3R5KuVM8XYVCurHo4eS27YJRskS8kxWPSBNulbupAUlJa6dskJAQQFgNSlB1umbpbosBxKaSkSgXQAAEpwb1SjTZBcgBwsNgkcd025KDsgBiUbJEoUEjhskKVCkgFLTjUkqHcqxFo1AExdYFM5FITojl81BLY9h/NSg6BQg7KTwSseJITeyVusngmg3chp0cegSllkkJub9SSrcZVJvdAHgrEbrtSSQ8HRDifflgaNugVuQAixFzYEKnUd6eKymqpuy7E75ja/RLXSQ1rlsy8QBFSWn8Itoqg95aWI0roo6WpJDmVLC64/C6+rfPb4rO2cr4tNcGaSafJYY28YKXLYgqWBt4h5qyynLmOtuGkqpypl+y0UykKOSVWFA1BTkKQGJrm5rW3UhQ0DML7blQ2EVbohn1ksNm6BJEztHho3KHAg3KmorB7nc/dCG6iOlukK2IZiQO6OvNJLK62UHTwU0huRG35JspbEMo3ValyafbpN9IokElPYANSAT4px3SK4xXTBCEKSATU5CCBqRKkQAiEIQAIQhBJ6pHA8HUFXqahkltlF/VczLj7b90k2Vqi4oER1DivNTwZatI9THVY7ps6+LBZzbut9StOkwCTd7owuZpeNGC14jp1cFal4/YxlmsjB8XrDPFqW6SNKz46vcdU3B42OAL2A+SSSigDh97f0XnFZx5K6S7Hxj5qhPxrPJ/3bf6Qnj6fqJdlT12Fcbj1k0VCxt3PdfzWdWewRC418yvJ6viytl0bUS287LMlxmrkPemefNy04/ScvcpGefqmNdcnpdXiNK0kNy2UMWL0rBq5i81FbK46n5oM0h5rV/8AnKqbKV6n5SPSncR0jL2ePQKnNxVDc5brz8veeabd3Mpo+n412D9Un4R20vFTGAuDVmVPGDnEhjQPVczPrE/yWc33lpx+n4e2jNk9Ty9JnR1PEk8t7ErOmxapkPvlRUtI+Vr3hpIaLlUrXK1x02KHSMc9Zmn3ImfUyv8AeeVDcnclBRurkkuihzb7EUsTtUxDdyh8kRdMsHVpCrhWG62tzVe1nEKIjT+wQhCYrBF0IQQFz1QhCAFQhqXZAAAnJl0l1IDieSB4pqEAOv0SFIEKABK1Il5KQFQhCAHN1KnGgULBqpgdUCgSi+vyTSbuQN1IWSjVye03com73T27FK0OmSNO58Ev4LdSAo76HzS5tQOgSUPZKTzUjXWsOajJBtY+CdGRnvyCV9DrsndHnc0g6tVbEwTEznlfY+qtQu5jnqo6+PNCTcjUXSLiSLJK4sTN22EzwON3ROErPyPy/JYrxletbAmQS1jm1pe5t7HvEd06E+lwfRHE2FjCcTfSteZIw1rmOIsSCB+tx6KyNRk4/fJRJ7kn/QZhkbpIJXhpLYyC49AdPzXXcL0dJVVUTK17o4C4B72i5a3mVk8E4lTUlBxFR1YuK/DnRROtfLKx7Xs/+pHqpMDxAQPu73ToVk1MJNPaa9NONpSMGsiZDVTxMdnYyRzWuta4BIBUWilxWwxCfIbtLiQVVWqHMUzJPiTRJokJCiJQnoWx5cEo7zZD0bb4lREKzR3scps4PZY873US4Q0OWQVOmyfTDLHm5lNrd7nc3JVumhL2MA6XSzdRLsUbm6EgGVjnu3VSR+Zy08Rj9npmgjUt/NZKXDUrkW6u4VjAlJdIi6vMAt0l0l0EoALoukQgAuhCEACEIQSIShIhAxbMzjzKTtD/ADH4qvnRnSbBt7JnPJ5n4pqjzJc6lRFcmx6EzMjOUURY/VKCUzMUZyiiSxG4DmpmvA5qiHFJnd1SuFjKdGj2g6pC8KgHHqlueqj2yfcLb3XY4X5KjH7yeSeqiG6eMaEk7Ox4ZxWlo8HxSGeEPkngLI3c2lcnC3NOxvU2UsD7ROCXDntjxGne/wB1sgJ+KlKmQ+iGojyObfm0FRBXMRc0vjDRoGWv11KphSyF0KdkN3TgLtCYN0DFpo+6a7xUMukhWxS0nbcOVk7dewkZm02Drj8wsioGrD1aq4u2WTXAxCanKwpBCEIAEBCEAKSkvdCEBQICEIAEIQgAQhCABKkSoIBKN0icFKAe1PTGp3JSIF0BNulB6IAkbsng6eN1GNgnX2CVjoffZKzV100m+6VhsFDHHtdlddPa6zTdRnbxJSk2aPilaGi6LkWjfFTOAkY5p2IVaJ12jXXZTDbVUtGiLMwE0laCWh1xqDsb6Kxj1Ua98VQ5oDiwNNttBb57+ZKbWNEsQff7yI6+ISSOz0T2Bo7rs4PgVandMzuNNpFKlflkbrbVXXv7Nzg03F9xzWdHo+xWq9na0MVQMgsexcA7W4F7keIO/gomPj5RSlcXuJKjupS29woSU0SvIqYXQkuhOIBWjg8D6gTCNpc5joybeLw383BZy2+EZuzqqyPOWdpT3DrXsWPZIDbwyJJ9DQdMzsVjMZhuPejDvmVrYHTunY4s/wC2zO7yBH7o4yYxooAw3MbJYHebJngfIhXOAK2OCvnjnF46ijmp/VzDb5gKrLbhwadNKp2N+0PDn4ViVPTO/HTwzg2tcPjDh/8AZcnfurrOPsRfi5wuqktnipIqVx65BlHyAXJ8kulv21fZOud5W/5f6EuhIhajECEIQAIQhAAhCEEghJdKgBqE5CBhiEiVACoQhADkhSIQKLdKmpSUDCg6pDukRzQA4JWpEBAClMG5T0wblAErDZp8U1ukgPO6QI5oAkqDmtfkFCE95TAhirongF9PH81E4ZZCPFS05sXeh+aWtblqnD1QSjc4dllOE4zSxsLmTQNc6wvbK8G6xamO1HTyDmXtPmCP3VnCHubLLGHOAc0ggG106oDTgLtO/HWEX8HM/wD8qtcSLZfimZSEiVWFY5IdEBIgUchNQgYE5NTkCgk5pE5AAhCEACEIQAIQhACtTwmtTlKFYrU7kmBOCkUDulG6bzShAEmmZKDqmNSqGMhxN7eKHXACG6uTn6m5UDCtdf8AJK53etdRNNilDrygKKJstQnkrIJ0VVukgA5qdp0sqZGiD4Iag9nVD+V2hURu0loNwO4fLcFSVwvGHbEFQSPc3JKLd4WPjZMlaEk6ZUmGWTop4JNHDkRdJOO1GZg8xzUMR7wCZq0QnUuC61ue1lFVwuhks8EXF1I13c00KZNI+Qd8l1uqSPDLMitECbdOTFcZRbqzhr8lbHc2DrtPqLKs1BJa4OG4N1DVomLpmniRdLStLveY8k+v9woMHqDBUsc3drswVlxEoI5StJHnv+6yoyYplX+UaL4vZOzocWjzQvaNWu77FzvJdE1wnpLA9+MZh4jmsSsjDJM7fcfr6qvC6tF2pjuSmiuhCFoMIIQhSAIQhBIISFKgBqAhCBgQhCAEQkS3QAJUiEAKhIhAAlSIQAqEJyAGpyEIFAJo5pyb1QMORzQEHdAC2zX8lG1SXtzsmIAu4dGJPabm2WBz/O1le4ponUOMMheLEsjd8QD+qz8PJEkoHOJwPlZWMXrJK3E2TTG7rNF/IW/RK7shDIXNZUSZepUb5D7JPGQLF7X+ouP1UcTryuJ5lOALopj6fXwSpUy6TuJUQhCsKguhCEAKhIlQAIQhADkl0qagUchCagByE1CAFCVIErdygCRCQpLqRRzU+2ijapPwqUQMulakKEAPB0SpoTjtogBzDzT9wohoLKUHQBIx0M5pjDeW6c91gSooPeN1IMuF1yCpg6+oVRpvdWITdnkq5ItiySSz2Fp5hUjrSkc2G6utO6gy6zN5EFRF0TJFQFwbppbYpQ7Oe+1hPW9io2SZHXaNfFSCqfzDHeBaFYytEzSy24F/FPEWYaOaPO6rPe6QaxgDw0RHKWC3fy/6km0dZCd1BUkXZEXj+ggqs9jo3Wka5p6OFlY9sc1/3bpGjl3rlTnEJSLSfes6PAKLmiGoMoNKY/ZaAZS1Js1r4JPDVvwUFVSS0574BadnA7qVNN0+GLsa5XKHQyH2Zljqw6KKvYBIJGe68Zh4JlM8ZjGTYO0v0Uo7zXRP3GyOmWfkiSgqnMLS094bK1Mxkkbhbuu1HVpWOCY3rQppg4WPwVc41yi7FNP4yKL2ljy1w1CDotCqp+1bmZ7wWcQQSCLFWQmpIoy4nB/oCS6VCcqEui6ClQA26EIQMCEIQAIQhADUIQgASpEIAVIi6EAASpAlQAoQkS7oAUJU0JboFDZNal3CTkUDD4zZK4gu0TBolCAsdYEW8EwBOBskv8EClimu1sp/psmSm9Q4jkljdaMjqbqIanxJQMPYbBPjcQx45KMXFwnRa38UtE3wQ2QnHUlFrphBtkWS2sjdBNjbISnRCCQCElkuiABCEWQAISWSoAEIQgBQnMTApG6BArApEFCCBwUltLKNqeNSpQrGlASFAQSOG90p1Ka1PHVSAl7lSAqE6FPB0UMlDJnaWRH3dUx5u9OJ7qEBMw97VPgdaS19Com6i6Qus+6hqyU6L4PeHwSPF5Aeo1KY03Fxz1T2m+ml1S+C9Oym2Fv/AJGnyTgQz3OfO1z6KN1NM3YBwOl2m6RtPK4nukEaG6e0/JVyvBOC8aHLr11KVrG277VGWCEAvfY9G7lR9sb90WHxRV9E39l2OGA76X8VZhw6nkFxLY9MwKxi9ztykSPHJ9MeM4ruNmnWUHs4LmPDgOmhVGaZ0jWtL5S0cnOvbyUeZ21ylBHMJoxa/LkWTTfxVCZc3n1ClBc5tz74+aYAxwtezvkpb9h3S0PJGt+SZkJ0QzDOA4b80yNxa64U7spN2i19wVCWo8E+bRehnIsDsVFUt7SVxJFz7p6+CgjdYWVjMHizgq62u0aG98drKhBBsdChTysIAz6t5O5jz6qFzS3fbkeqtTsyyi4sRCEKRRLJUIQA1CchADUIKEDDUIQgAQhCABAQhABZKkRdACpU26EAOSJEqAC6UJEIAdZKB0SDUqQbIFYwNJQRZOJTTuggXlZIPeFuSBvfonM1J1F0EhckHoE6PRoPimk6EKVo+4PmoYyIpW5XetkgKleM17cwCogNVKIYEBIgi4v6JZBlJHRBA1xBtprzSsYXGwSDVLc2sEAPcxjd3gnoE05eV0gFzYKzDSPkF9ggiyDuppstOPDg4WJs5SnAqgtuxpPkjgLMYpFfqMMqYDaSNw8bKL2ST+UooN1FUandCmfTyNvdp0UNkE3YoT9gmtGoSlBDEKAhFkAOanjZRtT+SlEMHJqcU3mgBycNk1K1AA/UpAdChyafdKCUNCXdIjmoAmh2ITH+8nM7rgU2bR5UgWYH3j8lK0963VVKY9/Keas31BVckWxZXLHN929012fLe5uF0mG4Z7bSskjaXuLy1zQNvX1+SnrsAdT1NPHJGY2z90X53JCo/aYKW19lnsSrcujlBFI88yUGB4F7FdA+lEdNE86SgOZK0/hc02P5KCUtYO+LZtLq/eijazHZC5xAtqVYNI5rA7Q3FxZaF42sD3iwDgARv5/JSVFbEWse0NLi2zrDQEDVI5tvgsUUlyZLKZ5BOU2G6d7I5ziLa2uPFWf4k1zXRvBy35dOalrMQY3sJKZrQAzLtqTrup3SuqIaVXZlmLLqQSAEh7QAuO211bp61z32Ibm0F7C1larHw1NMxmcMyDQAaHfdNbvoXiuTLaYg3M5hOtiSU7I0nu6eRup3UDn0+aG5JO3UKqKeRzWObG83BOg6bo4YJ0MkZldqmNfYp5d3r3J6gpkjQDpqDqEUPusm7YWsVZhew0roXMaGF2YG13N22Pos26mpjd1uYGyhx44GjO3yPqIQxgkicXRnQ33BVe60KJwzSMIBjHvX6dVWq6cwP6sJ0P6IjLmmLOCq0QXSXTkKwqG3KTVKhAwmqEt0IAahCEACEIsgAQiyLIAEJUWQAiE5CAGosnJyCLGbb7JLpx2TUEjhspo9bBV7qRjrG4QKx0mjrJg5qSoblfrzCSCMvdYcgXFRfkKEAIsOZTT7x6BOBu4lNGoJUgKTorIt2BVU7KUHuWUMdEkPvx32IIUPuuISsdqzzRUC0hI5oXDBq4gHD+yRxDsx1uVGClGqkroASBa+6npqWSolDGDvHROp6V80cjm2GRpdrzVuaphYyCWnJzlozDo5QDZd/hrcOh7Sry3Olr6q7ReySUzX52seTdw5ALlpp3SuJcSb9Smdo4C1zZSRTOlqcVp2SBhhY4D8bdCqVRi8mnYPLRe4ssTMjMo4JpmocbrHMLHylzDu0oGKvdCY3taRfQ21CyrpUBtNqHE2gNzxtda99N7rIeR2j7DQ7JmYhA1Ugo0OagoBtogoAEIsgoAVOBTErd1KAcdkgSlNQAoSg2KQbIKAHOTCnX0UbjqhghUBNShQSSjVqbLrYpzOiY/opZAjDZyug3b81RCswu7vilYy4Zu8PYx/DhNFKC6CW2a27T1HxVnG+IHV1JGGus+ElzSd7k309dVzZ/EORCqknZZ3poOW+uS/9omobPB2nEGK0dRxbX1FKD7HVET5HDZ0jGl7f/kXa+q5/EKnO8d7MANCAszO7ODfW1khJ6poYlGv0VCPI3f6l59S10DWgm48FUD7XTEK1RSK27EKUEltjsmlJdMSLmI2RmNrXSIQRRbpKyWmkEkbyHNvbw0WtgvEdVhc2HPjLHtpHyWY9oIc19swPUG2y51OvsknCMltatExbg7R2fFlTgeOez1mC4e3DKnLkqYGPLopHcnsB1b4t15WXKTxOjdlcOZsoWvc0gg7LQZeejdzc03+Kqhj9pKKdr9S1y3u65MwhDHFjg5u4UszLNDuRUTVeuSt8M3+E46eor5xWAmBzCHBviD+tlWma6nkNHKRJETaN5+v9lUoamSiqGzxagaOHUdFfdUUtRVMzvMUTtX3ZmsbaafqPnss8ouM3LwXxmnBLyZdTEYKiWFxBdG4tJGoJBsolo1tNmgEzXMc8XzEH3h1sVmgq6EtyKZx2sVCRCcUEJEIAEIQgASpEIAXRGiRCAFS3TUIAddF01GqAHXTlHql1QApKahCABAQgIAnmkzhgtqBqkimdFnLDbMLHyUd9UiikA8EuJtuSntZdjiPdA3PNRMGqlL3WLVKFf6EdtB4p42RodicoGl0sQDswPS6CbI76X6FTTjMzMFC0XuPBaWGUrq2jqGxgOkjGe3O3NLLjkaP0ZbU5psUjm5XEIUisnM78tgbDZQXQUikhILoKRCBhUJEqABCEiABPCa1OCCGKgIQgUVIlahACIGhSotogBUhRsEFSAA3Qd0iCgBeSZdOJ7qY1QyUKlCRKEEskjTH+8laUh3KkgbzUsJ1soSnxmxUEssk6qCYWf56qS6ZLq0Hpogki5pSk5oQAXShNSgoACkulKagBybzSpEAKkQlvqgB7G3C1MK1ZPHe2cNHzWY02atLBI3PkkffRoGnVU5fxbLcKuaSK8kV3TRncd9qotBJsN11+IexYdxVQRz2kpWx0xqcmvvRgyAX5jMR5hcvLlhrHhhzMa8gE8xfRNjluimhZx2zaZLQ3eJorXzsJHm3X9Ckw4wisY6pLhHfXKLn0TKR4ZPmJsBrforGI4bUUVbUU8rbSQOLX2OmnMeFrFS2m9pC4qR0UtHSVWGwCGZ0dSyGd8zpdGO1GRrT1tmuuN52XS4A2eobGJpA6j7VgkjzWdlJsct9unwWNitOKXEJo2EmLMSxxFrtvobclnwfCTg3ZrztShGaRTQhqCtZiEQhCABCEJQBCEIAEIQmAEIQgAQhCAC6W6RCABCEIAEIQlAXkkRyQN0wCjYqejDXTB0zS+NpBe0GxLedlFEwySBjbXdpqkcDG8i+o0UAaOIewOqHuwwzNg0s2W2YfBGDUzKquETnhgc1xudtBdZ2a5vzT43lrrg2KED5EDskl97FTUlTJQ1bZqdxBBuPEKs7dA1FipZHRZrpGTyGVjQ0u1ICrEoRyQSIhCEACEIQAIQhACpEIQAuyW4TUIAfdKFGlBIQRRIjmmBycCOqkWhUc0IQAbpUjUEoAQhCAUIJGu2SIKRQShUoTU5BI4bpHboCQoFEStSFA3QMTtOgQ7Vtk1pTkMUgShBGqAgYCmpSiyABIhCABCEIAAhHJAQA4lauFnsW9o8d0ajxKzqSF88uWNpcQLnyVp4kL7PO3IbKrI0/iX4ItPcMxKQyVImO79VUebuup673mDoFWU4+IoXNzNsUGxWlitY6rqhK6xLoow7xIYG3+SzE4FNtV7ivd8aPT/s9w6gxLgviEVUzGVVNCJ4GuGryHWsD6n9fDnuPsPjgiwbEIwA6tpbyhvJ7HOjN/E5b+qi4MrpKV1QwPkbE8EPDHWzC3unwKv8AFLZarhik7oPsLnFwA1a17r6+GZ1x5lcpKWPUNt8N/wC1/wCTsOKy6ZNLlL/VHC3QhC6xxgQhCkAQmoSkjkgSIQA5CEIIBCEIAEIQgAQhCABCEJgBCChAAhCEAKDY36Jzj2khJ5picz3moACAEnNT14ibVPEBJjvpfdV+aAAoSlIgBboQAldsEANQhCABCACTYC5KUggkEbboARCFLFC+V2WNjnGxNgOQ3QBEhCEACEIQAIQhAAhCEAF04OTUIAfdLdR3TgUWLQ5CEKQGO3SIO6FAwJWpErUAKgoQgBCkSlIEASNKdfRRtT0CjXbpFI0Nc7v5vDKLkp1Q6MTEQMc1lgLPNzfmo80TRAlykrRqphUU1GGU8MD4Yuzc5lwZjcnM4fzWNrjcAc1R7N1vdcfRQnZLVCtjac2aRjSBcXubnorNXQmkFOZZYi2eITRuYcwLTcWNtiCCCD0VPs3g+474KT2ectHcNuSH32SosjLGDZ9//UqSGEzTsijewuebAuOUX8zsh1NOGXMT8vWyi7N/8jvgi76Da12DmOHK/lqmpbi+mhUsdVOzNkkcC5uQnw6KSC7w9I6PEWZTbM0g35iyvVjPviQoKOds0+HxR08Uc0bXRmRlwZbkkFw662vzAC0aiFzJrSNILtrrDldZL/Q6mlW7FX6nPYgb1FrbCyqq3iQtVvHSwVTmtmP8Uc/N+bBKdSkVhsEjqV07GuMbXBrnW0a47A+djbyKa6KzXwWB0Qu8hokAO/LktWvqu3p8UhdKSTCXPPUgggLDw6dsbI3F4c5pyhp0t5+CX2js6SqaAA4xNjd4kuJJHosEsTlPc/8A7k6uLPGGPauqf+mZFkIQt5ygQkQpAYhCEpIIQhAAnIQgAQhCCAQhCABCEJgBCEJQBCEJgBCEIAClBIOm6RA5IAV7szrlIgoQAFCEIALpW25pAEAdEAPdlBGVp9Ujn30ytHkEBrrX5JNEAAcWkEEgjmEeaEl0AGiUEjYkX00SXQSgAQhCAAW1uhCEACEJQEAJZOAQNQfBAQA6yMt+SAVJHYOaXmwugUbVMDJS1osAAoVPUuzyucNidFAglDmlKdkxKTogkRCEIAErUiEAKhIlQAiEIQA4JyY1PQQyejlkimBhNnnTa6lngdLIZJXWe46k6XVRpLHgtNiCp5Gvdrm18dVXPh2i7Ht28qyZkrYmZQ64HQfqklrGXGRmttS43ULYgfeJJR2TLXypeCzc/A4V8rTdjgDbom+3z2P3jtfFAiACVzdNlNxF+b8gK6ews46Jxr5wdbbW1CjIsmO2KKi/AbpLySPqI5TeaIX6t0S08dI55zveAfSyqb7JdE23ikVqfPKs3G4PI5pnw2R8jo7P21A63Hkuqx7GoeIqGirfZ46bEII201ZExuXNI3aUD+sb9HA9QuO4exmrwfEIauikySxODhcBwPgQdCDsQd12nFuIYRirKTHMGpBRVLmltdSR37Nr+eQnXKR3gD7pBG1lz80ZbluV/T/7M6Wlcabg/wCa/wC55/iRLq6W4trZVeRWljrQ3EXOa4Oa9ocHDmDzWaVvxu4JmDOmskk/sRX8OqnQtqIAAYamPs3tO173afMED59VQTojaRtt7qZRTVMri6aLNLrmJB35Jk7y6WXU5S78lbpoTI18riBG1wLr87u2HjrdUXG7iepURpyY87UUhiE5IVYUCIQhAxGhCEpIIQhAAhCEAOQmoQA5CEIIBCEIAEIQmAEIQgBDsgIKRADkAkJAlQAIdqdEIIsUACAhCAHX0srgZFTwtfI4OndYtjGoaOrv2VEJQe8CVBFDyXzOv/sFI2AfiN0rZWD/AGS9szxSNyZbFRQojaOQTTA0nS4S9szxSidnil+Q3xGez9HIFP1Kl7dnI/JHbs6n4KbkFQI3U/QqMwPHK6sduzqfgl7dnU/BFyBxg/JVEEh/ClNPJ0VoTM11SiaP+ayN0voNkPsouY5ou5pASNtcX2U1U8Oc0NNwoQOqeN1yVSSTpC6ZjbZIUul9EiYgUHZSDvEXTYW3IBNrm1+i18Ww6KgigkgqoqmOYEgsOosbapXJJpPyG1u2vBkyHVRlOenwOiaHdq255KXwRFWQoCfM5rn3Y3K1MUJksEIQmAEIQgAQhCABCEIAAnjZRhPGyCGOClMjjzUSeNQirItroLnqUlz1TkIoi2AkcOaeJOoUd0qhxTGWSSJbX21T3Q5ad0kndvowfzdfRVgSNjZPleXvuSSbDc35JNjss91NdEdr6KE6GysKu/3yrGVRBaeE1BzOicbtcLELMU9C7LUt8TZVZI7otGnTzcJplivN4acH34w6M+jtPzVC+iuYh/nvZYaSON/gqhCMf4kZvza+hE+AfeDw1TFLBZrXOTvorj2WKeqkgimjs1zJBqHagHkR4hVuSc0Xum2UqKXIspOXD8CFKhCkUEIQgCFCEJRwQhCABCEIAEIQgByE1OQAIQhBAIQhAAhCEACEITACEJLoAVK73kiDugAQkKAgBUWSt3TrIAbZFk9CAG2RZORZACWRZKhAAiyEBAooASpEXQAxx7yRpGYZhcdEh3KEDDja5I25JSwAXza9EmTQItYi40QBewulp6mWVlVVNp2tjLmOIvmdyCMRoRRzujZM2UN2c3YqxgUlCKjJiFK+aIuBzMNnNCjxCdsrjYWA0A8FU299eBqW2zNJPNNTnJqtEQIQhBIWNroUjNdDsQoyLGyABCEIAEIQgAQhCABOCalagGKpWasUSexxB8ECsehLomlvQqRRU1BJB1CUIAQITkIAQqB/vlWFWdq4qGNEN1ZoGZ6qMDrdVtirlEeybLL/ACtsPMquf4svxJOSvohqX553u6uJ+aiQd0JoqlQsnubYKQaAdE6nawuHaOLW2OobfW2iTS+mylCvhCJUiLqSsVIhCABCEIJIUITko4IQhBA1CchBIIQhBAIQhAAhCEACEITACEIQAJqcU1AIchNQlJFCUoQUxAJAlSBADmJ6Y1PQAIQhAoIQhAAhCEDAhCECiprjYJU1yBhqEJbaoAVjiCD0U0jmvLTsFCLFGXooFa5LUQMZMkbttVDI/MSeqs0Lo2ud2gtdhb6qo/QkclC7BDXJqChMMCEIQA9nJEo2KRqV2oQR5IwlQhBIIQhAAhCEACGlCQIAenJt0IAladAnXUbUqLK6H3SHVNuhTYUIWkbFBJA1S3RdQSJmCiUjrZToo1DGiBVqQ5KNjBu85z+irxMzva0czZPqHB8pt7o0HkkfLSLovbFv+hEgC5AQpIG2u47JnwJFWxSMoDfikUzWB1yGucklAZ+EBShJO3ZEiyXNfwCMwOmqBQDCUFttyEpAt7xv0UeqkkXdCLeKEARIQhKOOQhCCAQhCABCEIAEIQgAQhCABCEJgBCEIAQpEp3SIJBCEJQBKdkicmIGoQhKSPalAtskanpiBLnmEXulTbBADkJuo21S3QAqEIQKCEIQAJhKc46JgCBhWi5ThY80g0QdtAgBXstqErSbZUkeZ5sN1NTxOlkIA1aCdVAv6CStDWRkG5I18CoXG6e/mFGVIIRCLaIQMCEIQA5qcmsBJsBcqXsn9FFgQOGqanyCzrJikECUJUl0EioTUIAchNQgBwKW6YnIIHMJLgAFMGOPJPhiY2PX3zz6JhYRpmBS2Q0L2dt3NHqkytvq75IuWmwcB4pRKBuQ7zCYigIjGxcU8OjH/bv5lQEXN7WunEZPeab+KACokzMADWtF+SgT5nZiNAPJMQMian7rXv5+6PMqEm5U7m5Imjna/qf7KBJHnksnwlEALusOatEhlmDluoqZpLi62ycWu1LhqVPbIb2x/mO7Rw93ZMLid0Aapp8CmKgSixGpIKbr4IAcdhdAD8rL6v8AknMY1x7p2UYjeeVkoieDoQPJBNEpaCLWshNDsvvOBKEvJNoqoQhBIIQhAAhCEAOQhCCAQhCABCEJgBCEIAEIQgBDukQhKSCE5IUwCoTUrdiggRCEJSR7Nk9MZzT0wrBCEmqggVJZKATyKd2bre6ixiO3RF+qlbHr3iB6oLGDeQHy1UWgpkYN9kqktEBs4+Oyhc658FNkUAs46lOaBtZMa3MrEDHg5slwghkeRNsQumwCjpsVr4aSUiF0jg3M7QC66vjP7Kq3h6AVMdTDU07he7dCPRZZ6qGOahJ02Xw085x3R5R5ew2U9O77wG9ipKqB0Dy1zbjqoQ2+rVpTTRQ1TFq2ZX3GxVYlWi/M3K5V3NspQIQ+56pqezmCdClcGjkT5KRiNCQoCAHNvyTyDbVaBpb4aydrRZUTbp80kZqXRMotdkBSKWRh3ANlEpAEIQgAQhCABKATsgJ7SmIEMbg0utoE6IxjVxOZTCxY4HmFUSktF4FnO5HmmODSdLhV2EgXspA49EUQSWbbc/BKGRcy70Ud0XRQEhIB7m39WqM7ne8/RMJ7osdeY6JLnoShICOY3fob6JYm55GtHM2TZSC82BHmp6EXnB6XPwCiTpWPjjukkLWOu7wJJ9Nh+SrKesGWbL/K0D5KFgu4BEPxGnzNlloMcLLAXOpTS+/vA+hVuRsYeBIxxygC+awUMjom7NYPW6iDtC5FUq+iF5Zpkb8VGA4nQFWjIGsDrsHQBuqaZtLd66ZFbIhG/m0pQbEc/VO7UFpzsJPmo7kmw08kxDJxJlGpDfBQvkc4mziAjI7kL+qYdNCooYWKLOCSUJI3ZXeCEck8ESEIUACEIQA5CEIAEIQggEIQgAQhCYAQgC6dkNr8kANQnZbbgpQL7M0SgMSWU2QcxZK2O/usvbxRYIhQh7S1xB3CagkEo5pEoTAIhCEoE0LQ4G9/RS5BezWOJ8U2mcWsdtr8VOH2b3muB6hK27GSTIg05cwaB4bp9ng3uB6JBzHI9SizhaxBHS11Fgkh7W7Fxdl8Elmi5y3aNtboGe+7h8k3utvmv6HVQTwOFmkHILeKWV/dsO6fAKO8dwMzgPio3OAvYg9FKVkXRG82NgbpqEK0QAbKzT1T4Tpt0KrIUd9gdvwn/DcQqo4q5/Y3Ns4NrLW4pZieG54KbEJquh/Dd5dYLzaGV0Lw5hsV1OE4+HRiGd2m1iubn08lP3I8r6N2HNFw2Ph/Zluqe0NpRrzuq0kQBzx7LcxLDYqoOmpiA7eywi58BdHILLVimpL4mXLBxfIOju3NZQSju3HqrLZB2RF+aqyAh3mrolTItglD7ckhJGiBY8k5KGuOtwhPGRFm+KUkmiqntpjFmOToomusbg6oDRY9U3QHW3ohJA2yQyyH8WigIsU/TkiznfhKOERZGhSiJ3MfEphFiQgkahCEAKEoTU4apiCVp7h8lDZSNTHCxIUUA6O5BbfS904MN902Ma6EJzbuI1JQA5kV3d5waOZKe9sbTZjy70SCMAjOdeifkYx3eafMqGwSItEl9bKZ5bs0NN+ic2V0RsQ235IsPJTlvn1VnDx967/Q78lDUv7R4d4dVYwpueoI/od+SWb+LLcP5qhmINLKuYHqoqUAztvtdXsdi7OsvyewO/RUqVwZOxztgblRB3jT/QaS25Wn9liuIdWSAusAdLqAZBa5JHgtXjHDjhPEdZSFwexpa+N7dnsc0Oa4eBBBWQJLA2Y31F0YmpRTX0JlT3u/slcYALgF3heyex7CBaC/iCqheT4eSbmPVPQhdqHtLLNaW+FlBcOFyQCokoAOxQiGSNuXcwOZT/uw67iXdAAoQSDo5LcW1F/VMBK4Qu1uQhQG34b+RQooBtiix6KTLpuU0gW5qQEylFupTw1ttUjhbYDzQA2wRbwKUeN0tz1QAlrbhJon5utimkXN7WSgKPJGqTbmi48UwAQSL8klk4XtoClJNkAMA0Tw6w0vdMuhAEoltyujtyDcAW6KJCWkTY4yEm5ARncNtE1FkEA5xcbk6o1LQLfJKB4JwugLIkoQdylTACQJUIAuUroxEQ42O+6n+6do0s16lPo6aCSGLtHWc7ll/VXRhDH6MzXOl3N/usk8sU+TXDDOS4SKWQtFi2Kw21Q2J0p+6cPIaq07CIYwe0q2NtzNrfmp6M0tGzs3VkDhe+hVcsqq48v+Q0dPK6nwv5ozzSyD3h81VlppmuOWJ+nPda9dT09ZZ8db3BpYC4+CqR4Y4OAjqpbf0xOTQy8W3/hizwNOl/tGa6JwOrXX8k1rcxtYk+C6GnoZIQ4OfJOCLgFoFviUraad5IipLnnd4Cb9qXgFpJfr/azmnscz3gQmropsPqXMd2rRG0b5Rc/kst+HvsTGJHDxbZWQzxl5K8mCUfBRshTy0ssTS54AA31GigVqafRS012CEITEGthmJGEFsriW8ldqWQ1cReLX5ELnFNT1D4Xd06dFRLEr3R4ZYsnG19Ek0L4SRuFDmvutRlRFUtsdHdCqktN98LaNPM7D1TRn4kK4fRWI1ShxurTqN7WNe+5ady3UfEIFKMlye8d/BHuRGWKRXDr6FoPonhrQ0kxE+KkbE8Qh7QcoPI/opO0As4PaHnTQWt5qHL6GUPsrtaHXtGLocDcAR29FfjqaVr8rmvmcdL6AKUw1DickByHYE3PxVbyV2h1iTXDMvLI2xNgpOxdsZB6bqxPQ1LI+/TTG+vdFwqjIpS7J2Dyd7HT1TqakrTEcHF00MdmaLWfbyVZx1WmaeRgAleGk/haLkhVK2IxyNvfUc00Zp8IWUGuSshCE4g5BBabOFkK0KfNRun7aMOY4N7K/esfxDwQQVfySFKkG6YBQSNkAkG43C1uHqptHiLXSYdBiQlY+L2aVpNy5paCLa5gSCPEKkaR/ZXyuEgNi22qrc6dMZQtWiASOGxSOke4WLiQmkWJB3ShpOwJTECXKmiizNzZJHf6RooiCNwR6Jwe86F5A80MEPljygHI5o6kq/wAOOYMcpBKbRvkEbvJ2n6qt2cpjzOkDm9L3UB7koIJHiOSRrfFxLIvZJSXg73i/h+SPhKmxa47SmqjRVDOYzNu026Xa8eYXn4uDovRanE34vS4hBUXb7Yxs1jyfuSP/AHu7/wB15/LE6NxDhaxsR0KzaRy2uEu0/wDDNOqSclkXlf5RrzznEqamkqnmR8MbYGudya0d1p8hoPBUJoMps1kYHVxVWCZ0ROXZwsQdirIq7CxaHDo4Xt5FaFBx66Mzkpd9laUZTazP/U3TBa2uqs3ineLi3gFbdhUjaYVDATESR4i1rkj1TOaj2QoSdtKzMDo9Lsd8VbYyIMzWaB1uoDSnNYOFkGBrb5pW+Sm0xaZL2cLwA123Qpj4mt2d6WTImhjr3Dum6lIBvfn6I6FavoiMYI0OqEr2xNFyPgUKdxNEWvQounA38UpamIGjxSEjknEX0uPimljkAFxzCL9Cmltt04NJ2BKgAzJQUFhG6aoAXdJtzRdCYBc3x6pNUISgCEI1OwQAJAlHihMAoGunzSjTfZJdF0APDm+KDYC4IPmmIuooBp1JUkkZjDLkHM0O0UYF0pNzqgASc1KGExucNhuowpBMsw1c8LC2ORzWnkhk7r94MPnqoDm6JAfH5JNsfoffL7NemZSSAZpYWv6GIm/wWhBQQG5bU91ouSyEAW8yVh0bQ45sw8buAPzV5vYxFvaVERjcf+2M7x5i9lkyRd0mzVjkqtpGkfZGgEyT2/1gX9EsjomC7HSSaXyOmdYeOgTXCOzYmvhLZHd14lZfXrfbZaFVSTvpLCn7PKQ7uNGYnz/3WRySas3Qg5J0Rx1NU7KGxZW7+6fzKYx1VNexyhp1IF7fAXSV0UsU8LyYw0NDcwAeWnnZtgozMyOcMfMxob3hMX5QDy7rQL2QkmrSJtp05MtMpJ6hwHtTHC2t3Em3kmz4ZFGM0s3dtoXc/wA7K3HJSzxBzTJUSi95GMIJPmFCyTEOx7OaGNodzle0HLboSLqpSnfDr/Bdtx1yrf8AcwMcgjipY+xzHMbm529LBYYHUrraltO4COeSjc9u5lqM1v8A4rKlhoJAS6qpoTf/ALbZHW+S6ODLUaaZyc2K5XaRjJLq1JBA0DJVNfrb/LcNOqrEAEgEEdVqTsyNV2CE50TmsDzbKdAQU0C5sBcqSKFBsbg2KuRVERjtVNkeRsGOt8VZwnCpqmsYySGRsZ3J7q6AYVRtgEUlNH3d3l3ePqs2XU44va+f5GrFgnLnr+ZjUTJJo/8AD4e7s/53SOA8+is1praSjD5atjeTWsYXf/stvDntpB2EYtANSwkm3ldX3T0JsHZdDfVun9lz56l7vxtf3Olj00HD8qf9v9HHUuG4lXtbJ2jWxuHvBwP5KviWHex5WHtppXcwO6F6FFW07BlibFl3NmgX8dN1DOWPkccrfVtrpY6yalyqRY/T4bOHb++zznD6erfNekilMg/lCtV4r4Hs/iMVxewZIbX9AVv4jiLKOobE3OPxENcALlNgi/i7JZy1xlY22YHvAdQ79NVreeTqc41H/Jg9mCbhCTcv8f2MfDpaV8oE9NLBH/5InPJXQ0hoJnZYqntTbYghw+IUNFSfw95kPahw0zGUkEeIsioxOR0jW05AJNySNT5eKz5Ze5L4X/c1YkscfnV/yKlfTCmrTKJ45HOFhERZwHh/dU+IKMtpopy0gg2PgDst2Ctga054nMY43JzXJPieZVHiaGOPCs0RfcyNBGfS1jy3TYsklkimRlhD25V/M45CcmrrHGBT0/ZCZvtGcxX7wYQD6XUCeALXKCGIedtkDxSsOhB5oDDr4JgLVFVzUNXBV0kroamCQSxSMNnMcDcEeRC0pqyGrjJnqZGzzEvkeW3u4m5Jt4rD5haWF4dJi1X7PSOYJCLjtDYeOqpyxj+UuK8luKck9sVdkxo8OyAtqtbWPe59Qp6VkEGZ1KY5JDpYygH5q8OB618JkjrKJ1r3AedLb8lRfwpibHAEQG+xEgsVmWTHPjcanCa52f2K1bV2JZU0r2utoC7TzVKKpA/zAMo2AC1ZMAxMwsDnRvaPwdsDk5KtLgdZGyPuBz3mwjae95+SshOFUpIqljyXe1/2GNBmZ9w0u00AcLj5qjNG6OQteLOG4Wi3Dqdsgjmr2wy8xJC4ZT0JTsQwh9JStqWzMlhLgLi4tfY2OqaOWKlV9/oyJYpuO6uv1X+ifCq7O2IameLYX95trEfD8glxGKhrZnPp5n5juWxOIPmsNkropRJE4seNiOSdFNM54AkIPiVLxfLdF0Kstx2yRPUYdPEMzQJG9WftuqZaSL20G61HTTwmI1LQY3DRzVo8R4Y2kg7QVED5rtzNjdmEkbmhzZAee9uotqhZaajLyTLFaco+DmWktNwdV1HDOIdrJHTSta4We0X5l1v2XLc1ewpz2zgx2BBGp5IzQUoNMnTZHGao1sQoxS1k8JGUseWgEXsqxhA1flc087WV6tnfNiLmuqYmyv7xD26EnxR7CyQF07GOlBtZovdZo5XGK3F8sO6b2GS+naHkse4DzSOp2E2cXkna5CmrqSYSu7Cma6MDcNVKGdvaNzRRDxNxZaYy3K0zNOG10+Cx7NHFZz2Eg9UKwa6nDwC4v0/C1CTfL6Y/tR/6kZDHBotcIfY/ismADql9VrMoWF/e+SUAA+8fgi9jqSjOlAdmzfhJSFxHKybmSXQApeT0SIQgAQhCABCBqi1kACEg3ShMAIRzRzQAouiyEuYW5IAQiyS19kF2lk+IgeqAGISvILzYaHZAsgBQSGkdUrXDs3AjUgAfFNJSFACh1tkF1zchIhKBap5oo3Bz4mutyNytOPFKHs7OpWh3Mtib+pWJbzQq54lPsuhkcOqNyTFKGYntG1LRr3WtZz9E6nnw6dzY31FdCNrueC3+y59KEn7PGqTZZ+1Su2kzrf8Al2nkAdHVyiM63JDs3lZadPhuHUoAggDnE+88Zj53Oy4WOplht2Ur222Adsp24pWMN2VEg9VmnpcsuN3Bqx6vDF3tp/3O9rH5og185poi2xcCAb+p0XOz0uCsla6evMzralzy6/wH6rnKipmqX5p5HSO6uN1FmTY9G4r8q/kRk10ZPiCf8zpM3DzCQA54699SQUOEVz/8FUyRTEktY8/lcfquYJ6H5JAbq39na/GbsqWqT/KKr+VG5iuCOoIO1ZMJGaBwc3K4E9Oqx2tB2B+CdLVTTMaySWR7G+61ziQFq4JBBmE0+JmjPIR3zeCdSlihcnb/APvoqlGGXJUFtX8//JjtZmdlbudAFsM4cxHIJRG1o30eCR8F0TcQwqLL7ZiEVWfdF6dpsPQKU8SYJDT9nEZHtGzBDlafhZY56rK/wj/hmzHpMUb3zX90UJq3HsQo2UjKeRxZfNOI8jyL6AkHYfEqhT8PY/O9jmU0xd7wEsgbztchx2ur78cw57g9rI2yF3MOuPW+3gq82K0chPtDon/y9m06edksXlqlFL+n/sJLFfM2/wCv/o1qjCsRlpmGqxSlppw3vRtIJ9SCqLcNmORn8Ye8XF8jSRbmoaHiqXD5XiKCCWE6aRgEjrqCQpncWS4g/JFhodUONx2brfoq/bzx8Kv6F8cmnlzKXP8AV/6LLX1cbSwydq4iwkhi7Mgdbn9kjMJLQ7tK+suQTlA29earYdT41U1XdilgZe7pJgZB89NfBddDQCFjXvkJed3tGUA+X6KjLP2uE1z9GvCoZOWnx93/AObOfl4bhjJdO+SoeNQ8yaOFvBKMOLqdsUL3RPj2aCQ038QtwwNPZu7VoJNjbW/opPYIZHHLM0NaL2I29VQ883+TLv2bB4VGVRVXsTSIqZz3HRxm7+nkdFeFRRVIcyuibSR2sXMYATsbkgfBWJ4qaKG05Y6AahzzsVz3EElNS0sj6WojEjhcMMzT8tb+qmC92XCpvyVPbhi2+V9GpT4TEYHCDJUwMcX9qwguy30u0rD4udBS4aYSyEyykNaWg3Fjcm/1um4NVGqw98jHvglaAHtZoH+On1dcrjDDDXysMjngG93b+q26bTy9z5S6Meq1UPaqMVyUCkQhdg4gIQhAChLmNrA6IUwYwNvm73RSiG6Iteimo3RidpnMjYb9/srZreF055jMbQdwdVBcZQANRzUNeAi/J0D4sByZYpsWimvcl0TSPHQEFUpYqS0nZYjJZmrGyROaXfAkArWp+KGMpWNkgl7djQBI1w1t1uE+XiDD5y189Nmktd2aMO16DX5rnr3IvmL/ALp/9jpOGKa4mk/5Nf8AcxsOyNq7DEhTMcLF+R3zFlssdWGLsmYthro73Di4A2HmPJV3U2E19NK6j+4qA3OGufa1txY/oVzulh1Vqisrfhr7SKnJ4Ul2n5TZ0tbhtXPBmlxTDXxEaEStG3JZ1bTSU9IRNicMpOoijkL7+dlk6/yoDjr4ix0VkMMo+f8ABTLKpXS/yNStNnAjkkQCWkEEgjYq8oLtVWvmpo4HCwYb28bJaqcmFjL7RtaVWfO6QXeGuda1yNVHITchxueaRQXBd7j5EV/C48zwbnfW3JUmtLjYAk9AtGnoa98Lnw08oB7u1rqMjSjTdBhvdaV0S1EGINrJXwRTsDzoWjcclrYTHU+zEVEUjHN1BJJzjnz0WNlxeCIRgVbI2k2DQdL77KP+JYlAbOnnbpYB/T1WeeN5I7U0aceWOOe6SZ1vYAtuMocfw63WDj9UxkjI6d7RINJAxjR8T1WUcTrSSTVTXO5zlVDcm+pRh0rhLdJk6jVrJHbFUW/4hU31e02FtWNP6IVRC1bI/Ri3y+wS7bpWJCrBBD4ISFIlsBwNkXQgIAEAX6JwSn/J9UAMLQBfM2/QIFuvyTUIRJI0Rk6vIHkpWQF5+6OYbXylV+a6TBf+hZ6/mqss3GPBdigpumYnsklwDkBJtYm35qxFg9W9pLQy17e8uti7+XP3tOeqSIDs26D3v0KzPUSRqjpYtnKDCKoEh7Wj/wBkowma5BcwWXRSf5rvP9E2T3Ui1Ex/2WBzMtBOx1rB2l7j8kypo56VjHTMyh5IGoOy6WL3ZPJYuNOcY47uPvHmrsWaU6sz5cMYJtGSnA2TU5a0Y2DXWcDa6S+pskShMA+QgmzQQB15pgQPeWhgjQ/EYA8Bw7Qbi6WTpNjQVtIs/wDLtaxpdKGMaLal3VXmcJ1D6bt46iF7LXJbrZegxgPM2cB3fbvryWNWfdxnJ3e9y0XGlrcnjg9DD07FXPJxw4cqiSGFptpunf8ALVQQR2kTSOt11WOvcyhppGOc1+Y94Gx26rJE8xm1lkPeb+I+Cn9sytdlb0WJPoy4+GZXadszN0sUx/D88bXOfJEABvf5K5V1EwqW2mkG/wCI+CzsTnmfEM8sjtBu4lWwzzb7KpafCov4jI8Cr5I2yMpwY3bO7RuvzU8PDddIdomaE6vvt5LpcA//AI5n+kLVi94eQVWTXTi2kXYfS8U4pts5Sk4Lq52SE1NLG5o0a4nvG48FSxDhfEaN5yxCoYBfNCc3y3XoMznMpzkJbodjZYlbV1AvaeUf+5VOPX5XKuP7FmT03AoWrX9Tz57HMcWvaWuG4IsU2y7Gp/xOH1klR968EWdJ3jv1KyeGmNkrou0a13eHvC67Mclxbo4Lx/LbZjBrjs0/BNII5L16SCLtnfdM9/8AlC8xxwD+IzafiP5pceVy4ZbnwLEk7M1OAViFozjQbHku+4ToqWSSLtKaB2n4oweasnPYuimEdzpnnKLlesy4bQ2m/wAFTfj/AO03+rwXC1UEIc60UY05NCWGTd2hpYkvJz4uTonhr76AhDd1KDorbKSw3E8RjbZtZUgeEjv3U9JichJ9t7WrZybJM8AfNUmoKreGD8DrNNeTffxU+KidT0dMynkJ0ew3t6ELJOMYhcn2uYFwANnW09FUYBbYJ7vdSx0+OPSGlqsku2EtfVTNLZqiZ7TuHPJB9EQVskDcrWQuF7gPja63xCru94pqs9uNVQnuS7s1BjVbkbGx7GAbBrAN1nzvdJIXPOZ5JueqjZ7w80O/EiMIx6QSnKXbGoQhMKCEIQAJyanN3KYgc0Zj0uky2eQph+FRy/5iCE+R9PGHzxskeI2uNi86hvikqIxFO+MPZJlNszdj5Jg970KQbFL5J8Bp12Ra/MJpQVIDreKExKNwpChVZoIWSzASC7VWVqh98pX0SjoazDaam4flrvZmkdoyFhufecCfyaVh02F1EzbkBl7Hvcwea2cSc48MMaXEj2l2l/6QtJu7vKP8iud7soRdfZvjijOST+jHhwGBhJqKogC1rN3W1QxCAtAqJy33WtkOYCya0AuNwFZZ/wBN6BZsmac1yzfDDDE/ii1l7J5fG4tuCD3tf7LLxaLDZ3Z64tEjRYuLzp52WtR/5XwXL8Z9yVgZ3R3tBpzSae3PsNQ0oW0YVZFCx7jDPG/XRsYdb4lVQhC7cVSOC3YIT490JiD/2Q==</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>disability</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>married</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>-Indian</t>
+    <t>Na</t>
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -128,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -185,54 +152,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
